--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_19_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1051581.121051761</v>
+        <v>1052947.090314917</v>
       </c>
     </row>
     <row r="7">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1209,70 +1209,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="S9" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="T9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1291,64 +1291,64 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="R10" t="n">
         <v>6.056421089299432</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,22 +1373,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.0817881518278</v>
+        <v>212.5303057566991</v>
       </c>
       <c r="H11" t="n">
-        <v>225.2892248434287</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>86.30023924150485</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>135.6226859698824</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>208.9961437262541</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0879769587719</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>79.71460943746604</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1461,10 +1461,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.6201573222675</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>95.59141629896709</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>30.06165587157603</v>
@@ -1497,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>139.6725179178992</v>
       </c>
       <c r="T12" t="n">
         <v>193.218379160494</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8280031440707</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>211.8123789857247</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>157.0038384482263</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5461723592212</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>149.381524823309</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>112.0011880774586</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>112.3296148478136</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>198.8375524229862</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.7723231588118</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.240221701987</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>91.05963572252358</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>86.30023924150485</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>135.6226859698824</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>208.9961437262541</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0879769587719</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>321.5817829317022</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>138.4293359089867</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>95.59141629896709</v>
       </c>
       <c r="I15" t="n">
-        <v>30.06165587157603</v>
+        <v>30.06165587157605</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>139.6725179178992</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>153.3357749852987</v>
+        <v>13.66325706739921</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>89.46177727513991</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5461723592212</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>149.381524823309</v>
       </c>
       <c r="I16" t="n">
         <v>112.0011880774586</v>
@@ -1822,10 +1822,10 @@
         <v>286.240221701987</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>153.2518311338425</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>224.7295751504918</v>
       </c>
       <c r="C17" t="n">
-        <v>80.03111208084073</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>412.0817881518278</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>306.4882544487972</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>86.30023924150485</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>135.6226859698824</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>208.9961437262541</v>
       </c>
       <c r="U17" t="n">
         <v>251.0879769587719</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1923,16 +1923,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>120.3043023374164</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1986,10 +1986,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>56.3371914810977</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>149.381524823309</v>
+        <v>27.94535301208916</v>
       </c>
       <c r="I19" t="n">
         <v>112.0011880774586</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>103.8528357569849</v>
+        <v>112.3296148478136</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>198.8375524229862</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>225.2022994230928</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>135.6226859698824</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>208.9961437262541</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0879769587719</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>26.84967313503471</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>87.06837148574094</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2223,7 +2223,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>126.3081730393514</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2242,22 +2242,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>31.13361065112719</v>
+        <v>79.90965607740158</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5461723592212</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>149.381524823309</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>112.0011880774586</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>112.3296148478136</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>198.8375524229862</v>
       </c>
       <c r="T22" t="n">
-        <v>221.7723231588118</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.240221701987</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2330,13 +2330,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>412.0817881518278</v>
+        <v>131.1314001643197</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>306.4882544487972</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>86.30023924150485</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.9961437262541</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0879769587719</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>65.28806356281456</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2394,13 +2394,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>39.21260248679447</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2409,13 +2409,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>135.6201573222675</v>
+        <v>13.53518471104667</v>
       </c>
       <c r="H24" t="n">
-        <v>95.59141629896709</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>30.06165587157603</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>225.8280031440707</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5461723592212</v>
+        <v>89.04504155769227</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>149.381524823309</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>112.0011880774586</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>64.75747148968927</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>198.8375524229862</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.7723231588118</v>
       </c>
       <c r="U25" t="n">
-        <v>286.240221701987</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2561,19 +2561,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>412.0817881518278</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>86.30023924150485</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>135.6226859698824</v>
       </c>
       <c r="T26" t="n">
         <v>208.9961437262541</v>
       </c>
       <c r="U26" t="n">
-        <v>84.72394857946148</v>
+        <v>251.0879769587719</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>103.2551004055567</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2685,19 +2685,19 @@
         <v>139.6725179178992</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>193.218379160494</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.8280031440707</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>199.0908367287616</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>52.08484312723233</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>112.3296148478136</v>
+        <v>91.05963572252358</v>
       </c>
       <c r="S28" t="n">
         <v>198.8375524229862</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>265.2530192113008</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2792,25 +2792,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>195.6949111118861</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>412.0817881518278</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>192.9308562168394</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>86.30023924150485</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>135.6226859698824</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.9961437262541</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0879769587719</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>151.2173286650167</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>135.6201573222675</v>
@@ -2922,13 +2922,13 @@
         <v>139.6725179178992</v>
       </c>
       <c r="T30" t="n">
-        <v>13.66325706739989</v>
+        <v>193.218379160494</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8280031440707</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>102.0866321974119</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5461723592212</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>149.381524823309</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.0011880774586</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>198.8375524229862</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>110.0587932902272</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>92.90331804119371</v>
+        <v>47.48778022069258</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>135.6226859698824</v>
       </c>
       <c r="T32" t="n">
-        <v>208.9961437262541</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.0879769587719</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3105,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>114.1289869989683</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>14.74580088672493</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>135.6201573222675</v>
       </c>
       <c r="H33" t="n">
         <v>95.59141629896709</v>
       </c>
       <c r="I33" t="n">
-        <v>30.06165587157603</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>112.0011880774586</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>112.3296148478136</v>
       </c>
       <c r="S34" t="n">
-        <v>71.31253479341514</v>
+        <v>198.8375524229862</v>
       </c>
       <c r="T34" t="n">
         <v>221.7723231588118</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.2518311338423</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3266,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>412.0817881518278</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>306.4882544487972</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>69.32757817359658</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>311.5894640849332</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>104.1619018472441</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>135.6201573222675</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>30.06165587157603</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>92.45194196290467</v>
+        <v>139.6725179178992</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>193.218379160494</v>
       </c>
       <c r="U36" t="n">
         <v>225.8280031440707</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>109.9933902245372</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5461723592212</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>149.381524823309</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,16 +3472,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>198.8375524229862</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.7723231588118</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>151.5902020354731</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>135.6226859698824</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.9961437262541</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>244.5579270646709</v>
       </c>
       <c r="V38" t="n">
-        <v>271.644974028917</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,28 +3579,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>90.54954677211427</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>135.6201573222675</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>95.59141629896709</v>
       </c>
       <c r="I39" t="n">
-        <v>30.06165587157603</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>139.6725179178992</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>193.218379160494</v>
       </c>
       <c r="U39" t="n">
         <v>225.8280031440707</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3648,7 +3648,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>72.42247922274106</v>
       </c>
     </row>
     <row r="40">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5461723592212</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>149.381524823309</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>112.0011880774586</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>91.05963572252358</v>
+        <v>112.3296148478136</v>
       </c>
       <c r="S40" t="n">
-        <v>198.8375524229862</v>
+        <v>154.1836376135788</v>
       </c>
       <c r="T40" t="n">
-        <v>221.7723231588118</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.240221701987</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,25 +3740,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>311.5894640849332</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>412.0817881518278</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>83.97361043612544</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3828,13 +3828,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.6201573222675</v>
       </c>
       <c r="H42" t="n">
-        <v>95.59141629896709</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>139.6725179178992</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>91.61369550520168</v>
+        <v>46.18826000641677</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3910,13 +3910,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>3.870306310533586</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>149.381524823309</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>112.0011880774586</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>265.2530192113008</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3977,25 +3977,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.0817881518278</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>306.4882544487972</v>
       </c>
       <c r="I44" t="n">
-        <v>86.30023924150485</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,16 +4034,16 @@
         <v>251.0879769587719</v>
       </c>
       <c r="V44" t="n">
-        <v>84.40186463052976</v>
+        <v>170.9534903436219</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4062,7 +4062,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>139.6725179178992</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>193.218379160494</v>
@@ -4113,13 +4113,13 @@
         <v>225.8280031440707</v>
       </c>
       <c r="V45" t="n">
-        <v>219.308169914524</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>14.45701818503903</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4150,7 +4150,7 @@
         <v>166.5461723592212</v>
       </c>
       <c r="H46" t="n">
-        <v>25.60851450812152</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>198.8375524229862</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.7723231588118</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,13 +4195,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>160.7025941804167</v>
       </c>
     </row>
   </sheetData>
@@ -4787,13 +4787,13 @@
         <v>20.55868221764227</v>
       </c>
       <c r="E8" t="n">
-        <v>14.44108515774386</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="F8" t="n">
-        <v>7.495584408540386</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5500836593369149</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="H8" t="n">
         <v>0.5500836593369149</v>
@@ -4802,7 +4802,7 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
         <v>7.357368943631237</v>
@@ -4811,16 +4811,16 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M8" t="n">
-        <v>13.8896123982571</v>
+        <v>9.515918264388961</v>
       </c>
       <c r="N8" t="n">
-        <v>20.69689768255142</v>
+        <v>16.32320354868328</v>
       </c>
       <c r="O8" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
         <v>27.50418296684575</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
         <v>0.5500836593369149</v>
@@ -4887,16 +4887,16 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="L9" t="n">
-        <v>5.770716025317804</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
-        <v>12.57800130961213</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N9" t="n">
-        <v>19.38528659390645</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O9" t="n">
-        <v>26.19257187820077</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X9" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L10" t="n">
-        <v>7.082327113962777</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M10" t="n">
-        <v>7.082327113962777</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N10" t="n">
-        <v>13.8896123982571</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O10" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="S10" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="T10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="U10" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="W10" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X10" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.6131814684388</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1924.511141693896</v>
+        <v>638.9555519540404</v>
       </c>
       <c r="C11" t="n">
-        <v>1924.511141693896</v>
+        <v>638.9555519540404</v>
       </c>
       <c r="D11" t="n">
-        <v>1566.245443087145</v>
+        <v>638.9555519540404</v>
       </c>
       <c r="E11" t="n">
-        <v>1180.457190488901</v>
+        <v>253.1672993557962</v>
       </c>
       <c r="F11" t="n">
-        <v>769.4712856992935</v>
+        <v>253.1672993557962</v>
       </c>
       <c r="G11" t="n">
-        <v>353.2270552429017</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="H11" t="n">
-        <v>125.6621816636808</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="I11" t="n">
-        <v>38.49022283387792</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="J11" t="n">
-        <v>129.8950878662134</v>
+        <v>129.8950878662135</v>
       </c>
       <c r="K11" t="n">
-        <v>317.6258045287437</v>
+        <v>317.6258045287438</v>
       </c>
       <c r="L11" t="n">
-        <v>587.4241206920572</v>
+        <v>587.4241206920574</v>
       </c>
       <c r="M11" t="n">
         <v>919.2961694379751</v>
@@ -5054,7 +5054,7 @@
         <v>1261.15206327298</v>
       </c>
       <c r="O11" t="n">
-        <v>1570.621628682068</v>
+        <v>1570.621628682067</v>
       </c>
       <c r="P11" t="n">
         <v>1800.245742068328</v>
@@ -5066,25 +5066,25 @@
         <v>1924.511141693896</v>
       </c>
       <c r="S11" t="n">
-        <v>1924.511141693896</v>
+        <v>1787.518529603105</v>
       </c>
       <c r="T11" t="n">
-        <v>1924.511141693896</v>
+        <v>1576.411313718</v>
       </c>
       <c r="U11" t="n">
-        <v>1924.511141693896</v>
+        <v>1322.787094567725</v>
       </c>
       <c r="V11" t="n">
-        <v>1924.511141693896</v>
+        <v>991.7242072241546</v>
       </c>
       <c r="W11" t="n">
-        <v>1924.511141693896</v>
+        <v>638.9555519540404</v>
       </c>
       <c r="X11" t="n">
-        <v>1924.511141693896</v>
+        <v>638.9555519540404</v>
       </c>
       <c r="Y11" t="n">
-        <v>1924.511141693896</v>
+        <v>638.9555519540404</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5094,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.5620277778677</v>
+        <v>455.1473522862283</v>
       </c>
       <c r="C12" t="n">
-        <v>757.1089984967407</v>
+        <v>455.1473522862283</v>
       </c>
       <c r="D12" t="n">
-        <v>608.1745888354894</v>
+        <v>374.6275447736364</v>
       </c>
       <c r="E12" t="n">
-        <v>448.937133830034</v>
+        <v>215.3900897681808</v>
       </c>
       <c r="F12" t="n">
-        <v>302.402575856919</v>
+        <v>68.85553179506582</v>
       </c>
       <c r="G12" t="n">
-        <v>165.4125179556386</v>
+        <v>68.85553179506582</v>
       </c>
       <c r="H12" t="n">
-        <v>68.85553179506583</v>
+        <v>68.85553179506582</v>
       </c>
       <c r="I12" t="n">
-        <v>38.49022283387792</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="J12" t="n">
-        <v>141.1885878996979</v>
+        <v>74.11248730413084</v>
       </c>
       <c r="K12" t="n">
-        <v>542.0481210775439</v>
+        <v>474.9720204819768</v>
       </c>
       <c r="L12" t="n">
-        <v>775.3256870105083</v>
+        <v>708.2495864149412</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.906471634595</v>
+        <v>999.830371039028</v>
       </c>
       <c r="N12" t="n">
-        <v>1380.613176917726</v>
+        <v>1313.537076322159</v>
       </c>
       <c r="O12" t="n">
-        <v>1645.373729473532</v>
+        <v>1578.297628877964</v>
       </c>
       <c r="P12" t="n">
-        <v>1838.534348358918</v>
+        <v>1771.458247763351</v>
       </c>
       <c r="Q12" t="n">
         <v>1917.737910271212</v>
@@ -5145,25 +5145,25 @@
         <v>1924.511141693896</v>
       </c>
       <c r="S12" t="n">
-        <v>1924.511141693896</v>
+        <v>1783.427790261674</v>
       </c>
       <c r="T12" t="n">
-        <v>1729.341061733801</v>
+        <v>1588.257710301579</v>
       </c>
       <c r="U12" t="n">
-        <v>1729.341061733801</v>
+        <v>1360.148616216659</v>
       </c>
       <c r="V12" t="n">
-        <v>1729.341061733801</v>
+        <v>1124.996507984917</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.389163768422</v>
+        <v>870.7591512567151</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.53766356289</v>
+        <v>662.9076510511823</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.777364797936</v>
+        <v>455.1473522862283</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1074.25103838532</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="C13" t="n">
-        <v>915.661302579031</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="D13" t="n">
-        <v>765.5446631666953</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="E13" t="n">
-        <v>617.6315695843022</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="F13" t="n">
-        <v>470.7416220863918</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="G13" t="n">
-        <v>302.5131651578855</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="H13" t="n">
-        <v>151.622736043432</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="I13" t="n">
-        <v>38.49022283387792</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="J13" t="n">
         <v>47.19101081600895</v>
@@ -5221,28 +5221,28 @@
         <v>1388.561308355825</v>
       </c>
       <c r="R13" t="n">
-        <v>1275.097050933791</v>
+        <v>1388.561308355825</v>
       </c>
       <c r="S13" t="n">
-        <v>1074.25103838532</v>
+        <v>1187.715295807354</v>
       </c>
       <c r="T13" t="n">
-        <v>1074.25103838532</v>
+        <v>963.7028481721907</v>
       </c>
       <c r="U13" t="n">
-        <v>1074.25103838532</v>
+        <v>674.5713110994765</v>
       </c>
       <c r="V13" t="n">
-        <v>1074.25103838532</v>
+        <v>419.8868228935896</v>
       </c>
       <c r="W13" t="n">
-        <v>1074.25103838532</v>
+        <v>130.469652856629</v>
       </c>
       <c r="X13" t="n">
-        <v>1074.25103838532</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="Y13" t="n">
-        <v>1074.25103838532</v>
+        <v>38.49022283387791</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>125.6621816636808</v>
+        <v>449.4761276234855</v>
       </c>
       <c r="C14" t="n">
-        <v>125.6621816636808</v>
+        <v>449.4761276234855</v>
       </c>
       <c r="D14" t="n">
-        <v>125.6621816636808</v>
+        <v>449.4761276234855</v>
       </c>
       <c r="E14" t="n">
-        <v>125.6621816636808</v>
+        <v>449.4761276234855</v>
       </c>
       <c r="F14" t="n">
-        <v>125.6621816636808</v>
+        <v>38.4902228338779</v>
       </c>
       <c r="G14" t="n">
-        <v>125.6621816636808</v>
+        <v>38.4902228338779</v>
       </c>
       <c r="H14" t="n">
-        <v>125.6621816636808</v>
+        <v>38.4902228338779</v>
       </c>
       <c r="I14" t="n">
-        <v>38.49022283387791</v>
+        <v>38.4902228338779</v>
       </c>
       <c r="J14" t="n">
-        <v>129.8950878662134</v>
+        <v>129.8950878662133</v>
       </c>
       <c r="K14" t="n">
-        <v>317.6258045287437</v>
+        <v>317.6258045287436</v>
       </c>
       <c r="L14" t="n">
-        <v>587.4241206920572</v>
+        <v>587.4241206920569</v>
       </c>
       <c r="M14" t="n">
-        <v>919.2961694379751</v>
+        <v>919.2961694379745</v>
       </c>
       <c r="N14" t="n">
         <v>1261.152063272979</v>
@@ -5303,25 +5303,25 @@
         <v>1924.511141693895</v>
       </c>
       <c r="S14" t="n">
-        <v>1787.518529603105</v>
+        <v>1924.511141693895</v>
       </c>
       <c r="T14" t="n">
-        <v>1576.411313718</v>
+        <v>1924.511141693895</v>
       </c>
       <c r="U14" t="n">
-        <v>1322.787094567725</v>
+        <v>1924.511141693895</v>
       </c>
       <c r="V14" t="n">
-        <v>991.7242072241544</v>
+        <v>1924.511141693895</v>
       </c>
       <c r="W14" t="n">
-        <v>638.9555519540402</v>
+        <v>1599.681057924499</v>
       </c>
       <c r="X14" t="n">
-        <v>265.4897936929603</v>
+        <v>1226.215299663419</v>
       </c>
       <c r="Y14" t="n">
-        <v>125.6621816636808</v>
+        <v>836.0759676876073</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>165.4125179556386</v>
       </c>
       <c r="H15" t="n">
-        <v>68.85553179506582</v>
+        <v>68.85553179506583</v>
       </c>
       <c r="I15" t="n">
-        <v>38.49022283387791</v>
+        <v>38.4902228338779</v>
       </c>
       <c r="J15" t="n">
-        <v>74.11248730413084</v>
+        <v>74.11248730413081</v>
       </c>
       <c r="K15" t="n">
-        <v>474.9720204819768</v>
+        <v>213.1514358395238</v>
       </c>
       <c r="L15" t="n">
-        <v>708.2495864149412</v>
+        <v>446.429001772488</v>
       </c>
       <c r="M15" t="n">
-        <v>999.830371039028</v>
+        <v>738.0097863965748</v>
       </c>
       <c r="N15" t="n">
-        <v>1313.537076322159</v>
+        <v>1051.716491679705</v>
       </c>
       <c r="O15" t="n">
-        <v>1578.297628877964</v>
+        <v>1316.477044235511</v>
       </c>
       <c r="P15" t="n">
-        <v>1771.458247763351</v>
+        <v>1630.557833500427</v>
       </c>
       <c r="Q15" t="n">
         <v>1917.737910271211</v>
@@ -5382,13 +5382,13 @@
         <v>1924.511141693895</v>
       </c>
       <c r="S15" t="n">
-        <v>1924.511141693895</v>
+        <v>1783.427790261674</v>
       </c>
       <c r="T15" t="n">
-        <v>1924.511141693895</v>
+        <v>1783.427790261674</v>
       </c>
       <c r="U15" t="n">
-        <v>1924.511141693895</v>
+        <v>1783.427790261674</v>
       </c>
       <c r="V15" t="n">
         <v>1769.626520496624</v>
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.622736043432</v>
+        <v>561.1070536774422</v>
       </c>
       <c r="C16" t="n">
-        <v>151.622736043432</v>
+        <v>561.1070536774422</v>
       </c>
       <c r="D16" t="n">
-        <v>151.622736043432</v>
+        <v>561.1070536774422</v>
       </c>
       <c r="E16" t="n">
-        <v>151.622736043432</v>
+        <v>561.1070536774422</v>
       </c>
       <c r="F16" t="n">
-        <v>151.622736043432</v>
+        <v>470.7416220863918</v>
       </c>
       <c r="G16" t="n">
-        <v>151.622736043432</v>
+        <v>302.5131651578855</v>
       </c>
       <c r="H16" t="n">
         <v>151.622736043432</v>
       </c>
       <c r="I16" t="n">
-        <v>38.49022283387791</v>
+        <v>38.4902228338779</v>
       </c>
       <c r="J16" t="n">
-        <v>47.19101081600895</v>
+        <v>47.19101081600891</v>
       </c>
       <c r="K16" t="n">
         <v>191.3259149606932</v>
       </c>
       <c r="L16" t="n">
-        <v>431.2954029581912</v>
+        <v>431.295402958191</v>
       </c>
       <c r="M16" t="n">
-        <v>694.6987049410982</v>
+        <v>694.698704941098</v>
       </c>
       <c r="N16" t="n">
-        <v>957.2734815600328</v>
+        <v>957.2734815600326</v>
       </c>
       <c r="O16" t="n">
         <v>1183.787491212247</v>
       </c>
       <c r="P16" t="n">
-        <v>1354.088675745205</v>
+        <v>1354.088675745204</v>
       </c>
       <c r="Q16" t="n">
         <v>1388.561308355825</v>
@@ -5464,22 +5464,22 @@
         <v>1074.25103838532</v>
       </c>
       <c r="T16" t="n">
-        <v>850.2385907501568</v>
+        <v>850.2385907501564</v>
       </c>
       <c r="U16" t="n">
-        <v>561.1070536774427</v>
+        <v>561.1070536774422</v>
       </c>
       <c r="V16" t="n">
-        <v>306.4225654715558</v>
+        <v>561.1070536774422</v>
       </c>
       <c r="W16" t="n">
-        <v>151.622736043432</v>
+        <v>561.1070536774422</v>
       </c>
       <c r="X16" t="n">
-        <v>151.622736043432</v>
+        <v>561.1070536774422</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.622736043432</v>
+        <v>561.1070536774422</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1318.118267273507</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="C17" t="n">
-        <v>1237.278760121142</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="D17" t="n">
-        <v>1237.278760121142</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="E17" t="n">
-        <v>851.490507522898</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="F17" t="n">
-        <v>851.490507522898</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="G17" t="n">
-        <v>435.2462770665063</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="H17" t="n">
-        <v>125.6621816636808</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="I17" t="n">
         <v>38.49022283387791</v>
@@ -5540,25 +5540,25 @@
         <v>1924.511141693896</v>
       </c>
       <c r="S17" t="n">
-        <v>1924.511141693896</v>
+        <v>1787.518529603105</v>
       </c>
       <c r="T17" t="n">
-        <v>1924.511141693896</v>
+        <v>1576.411313718</v>
       </c>
       <c r="U17" t="n">
-        <v>1670.886922543621</v>
+        <v>1322.787094567725</v>
       </c>
       <c r="V17" t="n">
-        <v>1670.886922543621</v>
+        <v>991.7242072241546</v>
       </c>
       <c r="W17" t="n">
-        <v>1318.118267273507</v>
+        <v>638.9555519540404</v>
       </c>
       <c r="X17" t="n">
-        <v>1318.118267273507</v>
+        <v>265.4897936929605</v>
       </c>
       <c r="Y17" t="n">
-        <v>1318.118267273507</v>
+        <v>265.4897936929605</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>645.6375602153362</v>
+        <v>286.9320152661603</v>
       </c>
       <c r="C18" t="n">
-        <v>471.1845309342091</v>
+        <v>165.4125179556386</v>
       </c>
       <c r="D18" t="n">
-        <v>471.1845309342091</v>
+        <v>165.4125179556386</v>
       </c>
       <c r="E18" t="n">
-        <v>311.9470759287536</v>
+        <v>165.4125179556386</v>
       </c>
       <c r="F18" t="n">
         <v>165.4125179556386</v>
@@ -5592,28 +5592,28 @@
         <v>38.49022283387791</v>
       </c>
       <c r="J18" t="n">
-        <v>74.11248730413084</v>
+        <v>198.9426122911356</v>
       </c>
       <c r="K18" t="n">
-        <v>334.0716062190528</v>
+        <v>337.9815608265287</v>
       </c>
       <c r="L18" t="n">
-        <v>567.3491721520172</v>
+        <v>571.2591267594931</v>
       </c>
       <c r="M18" t="n">
-        <v>858.9299567761042</v>
+        <v>862.8399113835801</v>
       </c>
       <c r="N18" t="n">
-        <v>1172.636662059235</v>
+        <v>1176.546616666711</v>
       </c>
       <c r="O18" t="n">
-        <v>1437.397214615041</v>
+        <v>1441.307169222516</v>
       </c>
       <c r="P18" t="n">
-        <v>1630.557833500427</v>
+        <v>1634.467788107903</v>
       </c>
       <c r="Q18" t="n">
-        <v>1917.737910271212</v>
+        <v>1921.647864878687</v>
       </c>
       <c r="R18" t="n">
         <v>1924.511141693896</v>
@@ -5634,10 +5634,10 @@
         <v>870.7591512567151</v>
       </c>
       <c r="X18" t="n">
-        <v>813.8528972354043</v>
+        <v>662.9076510511823</v>
       </c>
       <c r="Y18" t="n">
-        <v>813.8528972354043</v>
+        <v>455.1473522862283</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>450.4262587402786</v>
+        <v>348.7865482764795</v>
       </c>
       <c r="C19" t="n">
-        <v>450.4262587402786</v>
+        <v>179.8503653485726</v>
       </c>
       <c r="D19" t="n">
-        <v>450.4262587402786</v>
+        <v>179.8503653485726</v>
       </c>
       <c r="E19" t="n">
-        <v>302.5131651578855</v>
+        <v>179.8503653485726</v>
       </c>
       <c r="F19" t="n">
-        <v>302.5131651578855</v>
+        <v>179.8503653485726</v>
       </c>
       <c r="G19" t="n">
-        <v>302.5131651578855</v>
+        <v>179.8503653485726</v>
       </c>
       <c r="H19" t="n">
         <v>151.622736043432</v>
@@ -5695,28 +5695,28 @@
         <v>1388.561308355825</v>
       </c>
       <c r="R19" t="n">
-        <v>1283.65945405584</v>
+        <v>1275.097050933791</v>
       </c>
       <c r="S19" t="n">
-        <v>1283.65945405584</v>
+        <v>1074.25103838532</v>
       </c>
       <c r="T19" t="n">
-        <v>1283.65945405584</v>
+        <v>1074.25103838532</v>
       </c>
       <c r="U19" t="n">
-        <v>994.5279169831261</v>
+        <v>785.1195013126061</v>
       </c>
       <c r="V19" t="n">
-        <v>739.8434287772393</v>
+        <v>530.4350131067192</v>
       </c>
       <c r="W19" t="n">
-        <v>450.4262587402786</v>
+        <v>530.4350131067192</v>
       </c>
       <c r="X19" t="n">
-        <v>450.4262587402786</v>
+        <v>530.4350131067192</v>
       </c>
       <c r="Y19" t="n">
-        <v>450.4262587402786</v>
+        <v>530.4350131067192</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>449.4761276234855</v>
+        <v>265.9672929582141</v>
       </c>
       <c r="C20" t="n">
-        <v>449.4761276234855</v>
+        <v>265.9672929582141</v>
       </c>
       <c r="D20" t="n">
-        <v>449.4761276234855</v>
+        <v>265.9672929582141</v>
       </c>
       <c r="E20" t="n">
-        <v>449.4761276234855</v>
+        <v>265.9672929582141</v>
       </c>
       <c r="F20" t="n">
-        <v>38.49022283387792</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="G20" t="n">
-        <v>38.49022283387792</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="H20" t="n">
-        <v>38.49022283387792</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="I20" t="n">
-        <v>38.49022283387792</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="J20" t="n">
         <v>129.8950878662135</v>
@@ -5756,16 +5756,16 @@
         <v>317.6258045287438</v>
       </c>
       <c r="L20" t="n">
-        <v>587.424120692057</v>
+        <v>587.4241206920568</v>
       </c>
       <c r="M20" t="n">
-        <v>919.2961694379751</v>
+        <v>919.2961694379746</v>
       </c>
       <c r="N20" t="n">
-        <v>1261.15206327298</v>
+        <v>1261.152063272979</v>
       </c>
       <c r="O20" t="n">
-        <v>1570.621628682068</v>
+        <v>1570.621628682067</v>
       </c>
       <c r="P20" t="n">
         <v>1800.245742068328</v>
@@ -5777,25 +5777,25 @@
         <v>1924.511141693896</v>
       </c>
       <c r="S20" t="n">
-        <v>1787.518529603105</v>
+        <v>1924.511141693896</v>
       </c>
       <c r="T20" t="n">
-        <v>1787.518529603105</v>
+        <v>1713.40392580879</v>
       </c>
       <c r="U20" t="n">
-        <v>1533.894310452831</v>
+        <v>1713.40392580879</v>
       </c>
       <c r="V20" t="n">
-        <v>1202.83142310926</v>
+        <v>1382.34103846522</v>
       </c>
       <c r="W20" t="n">
-        <v>850.0627678391459</v>
+        <v>1029.572383195106</v>
       </c>
       <c r="X20" t="n">
-        <v>476.597009578066</v>
+        <v>656.1066249340258</v>
       </c>
       <c r="Y20" t="n">
-        <v>449.4761276234855</v>
+        <v>265.9672929582141</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>165.4125179556386</v>
       </c>
       <c r="H21" t="n">
-        <v>68.85553179506583</v>
+        <v>68.85553179506582</v>
       </c>
       <c r="I21" t="n">
-        <v>38.49022283387792</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="J21" t="n">
         <v>74.11248730413084</v>
       </c>
       <c r="K21" t="n">
-        <v>213.1514358395239</v>
+        <v>474.9720204819768</v>
       </c>
       <c r="L21" t="n">
-        <v>446.4290017724883</v>
+        <v>775.3256870105079</v>
       </c>
       <c r="M21" t="n">
-        <v>738.0097863965752</v>
+        <v>1066.906471634595</v>
       </c>
       <c r="N21" t="n">
-        <v>1051.716491679706</v>
+        <v>1380.613176917725</v>
       </c>
       <c r="O21" t="n">
-        <v>1316.477044235512</v>
+        <v>1645.373729473531</v>
       </c>
       <c r="P21" t="n">
-        <v>1630.557833500427</v>
+        <v>1838.534348358918</v>
       </c>
       <c r="Q21" t="n">
         <v>1917.737910271212</v>
@@ -5868,13 +5868,13 @@
         <v>1689.359033462153</v>
       </c>
       <c r="W21" t="n">
-        <v>1435.121676733952</v>
+        <v>1435.121676733951</v>
       </c>
       <c r="X21" t="n">
-        <v>1307.53766356289</v>
+        <v>1227.270176528418</v>
       </c>
       <c r="Y21" t="n">
-        <v>1099.777364797936</v>
+        <v>1019.509877763465</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>217.8514079830662</v>
+        <v>846.2614874873029</v>
       </c>
       <c r="C22" t="n">
-        <v>217.8514079830662</v>
+        <v>846.2614874873029</v>
       </c>
       <c r="D22" t="n">
-        <v>186.403316416271</v>
+        <v>765.5446631666953</v>
       </c>
       <c r="E22" t="n">
-        <v>38.49022283387792</v>
+        <v>617.6315695843022</v>
       </c>
       <c r="F22" t="n">
-        <v>38.49022283387792</v>
+        <v>470.7416220863918</v>
       </c>
       <c r="G22" t="n">
-        <v>38.49022283387792</v>
+        <v>302.5131651578855</v>
       </c>
       <c r="H22" t="n">
-        <v>38.49022283387792</v>
+        <v>151.622736043432</v>
       </c>
       <c r="I22" t="n">
-        <v>38.49022283387792</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="J22" t="n">
         <v>47.19101081600895</v>
@@ -5935,25 +5935,25 @@
         <v>1275.097050933791</v>
       </c>
       <c r="S22" t="n">
-        <v>1275.097050933791</v>
+        <v>1074.25103838532</v>
       </c>
       <c r="T22" t="n">
-        <v>1051.084603298628</v>
+        <v>1074.25103838532</v>
       </c>
       <c r="U22" t="n">
-        <v>761.9530662259136</v>
+        <v>1074.25103838532</v>
       </c>
       <c r="V22" t="n">
-        <v>507.2685780200268</v>
+        <v>1074.25103838532</v>
       </c>
       <c r="W22" t="n">
-        <v>217.8514079830662</v>
+        <v>1074.25103838532</v>
       </c>
       <c r="X22" t="n">
-        <v>217.8514079830662</v>
+        <v>846.2614874873029</v>
       </c>
       <c r="Y22" t="n">
-        <v>217.8514079830662</v>
+        <v>846.2614874873029</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>454.7344532902697</v>
+        <v>936.6647537688571</v>
       </c>
       <c r="C23" t="n">
-        <v>454.7344532902697</v>
+        <v>567.7022368284454</v>
       </c>
       <c r="D23" t="n">
-        <v>454.7344532902697</v>
+        <v>567.7022368284454</v>
       </c>
       <c r="E23" t="n">
-        <v>454.7344532902697</v>
+        <v>567.7022368284454</v>
       </c>
       <c r="F23" t="n">
-        <v>454.7344532902697</v>
+        <v>567.7022368284454</v>
       </c>
       <c r="G23" t="n">
-        <v>38.49022283387792</v>
+        <v>435.2462770665063</v>
       </c>
       <c r="H23" t="n">
-        <v>38.49022283387792</v>
+        <v>125.6621816636808</v>
       </c>
       <c r="I23" t="n">
         <v>38.49022283387792</v>
       </c>
       <c r="J23" t="n">
-        <v>129.8950878662135</v>
+        <v>129.8950878662134</v>
       </c>
       <c r="K23" t="n">
         <v>317.6258045287437</v>
@@ -5996,7 +5996,7 @@
         <v>587.4241206920572</v>
       </c>
       <c r="M23" t="n">
-        <v>919.2961694379753</v>
+        <v>919.2961694379751</v>
       </c>
       <c r="N23" t="n">
         <v>1261.15206327298</v>
@@ -6017,22 +6017,22 @@
         <v>1924.511141693896</v>
       </c>
       <c r="T23" t="n">
-        <v>1924.511141693896</v>
+        <v>1713.403925808791</v>
       </c>
       <c r="U23" t="n">
-        <v>1670.886922543621</v>
+        <v>1713.403925808791</v>
       </c>
       <c r="V23" t="n">
-        <v>1604.939383591283</v>
+        <v>1713.403925808791</v>
       </c>
       <c r="W23" t="n">
-        <v>1604.939383591283</v>
+        <v>1713.403925808791</v>
       </c>
       <c r="X23" t="n">
-        <v>1231.473625330203</v>
+        <v>1713.403925808791</v>
       </c>
       <c r="Y23" t="n">
-        <v>841.3342933543915</v>
+        <v>1323.264593832979</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>662.9988524917615</v>
+        <v>522.0841234979032</v>
       </c>
       <c r="C24" t="n">
-        <v>488.5458232106345</v>
+        <v>347.6310942167762</v>
       </c>
       <c r="D24" t="n">
-        <v>448.937133830034</v>
+        <v>198.6966845555249</v>
       </c>
       <c r="E24" t="n">
-        <v>448.937133830034</v>
+        <v>198.6966845555249</v>
       </c>
       <c r="F24" t="n">
-        <v>302.402575856919</v>
+        <v>52.16212658240991</v>
       </c>
       <c r="G24" t="n">
-        <v>165.4125179556386</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="H24" t="n">
-        <v>68.85553179506583</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="I24" t="n">
         <v>38.49022283387792</v>
@@ -6084,10 +6084,10 @@
         <v>1441.307169222516</v>
       </c>
       <c r="P24" t="n">
-        <v>1634.467788107903</v>
+        <v>1637.331064923111</v>
       </c>
       <c r="Q24" t="n">
-        <v>1917.737910271212</v>
+        <v>1924.511141693896</v>
       </c>
       <c r="R24" t="n">
         <v>1924.511141693896</v>
@@ -6102,16 +6102,16 @@
         <v>1360.14861621666</v>
       </c>
       <c r="V24" t="n">
-        <v>1124.996507984917</v>
+        <v>1360.14861621666</v>
       </c>
       <c r="W24" t="n">
-        <v>870.7591512567153</v>
+        <v>1105.911259488458</v>
       </c>
       <c r="X24" t="n">
-        <v>870.7591512567153</v>
+        <v>898.0597592829251</v>
       </c>
       <c r="Y24" t="n">
-        <v>662.9988524917615</v>
+        <v>690.2994605179713</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>206.7186797623841</v>
+        <v>392.4576515797969</v>
       </c>
       <c r="C25" t="n">
-        <v>206.7186797623841</v>
+        <v>392.4576515797969</v>
       </c>
       <c r="D25" t="n">
-        <v>206.7186797623841</v>
+        <v>392.4576515797969</v>
       </c>
       <c r="E25" t="n">
-        <v>206.7186797623841</v>
+        <v>392.4576515797969</v>
       </c>
       <c r="F25" t="n">
-        <v>206.7186797623841</v>
+        <v>392.4576515797969</v>
       </c>
       <c r="G25" t="n">
-        <v>38.49022283387792</v>
+        <v>302.5131651578855</v>
       </c>
       <c r="H25" t="n">
-        <v>38.49022283387792</v>
+        <v>151.622736043432</v>
       </c>
       <c r="I25" t="n">
         <v>38.49022283387792</v>
@@ -6169,28 +6169,28 @@
         <v>1388.561308355825</v>
       </c>
       <c r="R25" t="n">
-        <v>1323.149720992503</v>
+        <v>1388.561308355825</v>
       </c>
       <c r="S25" t="n">
-        <v>1122.303708444032</v>
+        <v>1388.561308355825</v>
       </c>
       <c r="T25" t="n">
-        <v>898.2912608088682</v>
+        <v>1164.548860720662</v>
       </c>
       <c r="U25" t="n">
-        <v>609.159723736154</v>
+        <v>1164.548860720662</v>
       </c>
       <c r="V25" t="n">
-        <v>609.159723736154</v>
+        <v>909.8643725147748</v>
       </c>
       <c r="W25" t="n">
-        <v>609.159723736154</v>
+        <v>620.4472024778142</v>
       </c>
       <c r="X25" t="n">
-        <v>609.159723736154</v>
+        <v>392.4576515797969</v>
       </c>
       <c r="Y25" t="n">
-        <v>388.3671445926238</v>
+        <v>392.4576515797969</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>511.4504342619251</v>
+        <v>865.7203580798773</v>
       </c>
       <c r="C26" t="n">
-        <v>511.4504342619251</v>
+        <v>865.7203580798773</v>
       </c>
       <c r="D26" t="n">
-        <v>511.4504342619251</v>
+        <v>865.7203580798773</v>
       </c>
       <c r="E26" t="n">
-        <v>125.6621816636808</v>
+        <v>865.7203580798773</v>
       </c>
       <c r="F26" t="n">
-        <v>125.6621816636808</v>
+        <v>454.7344532902697</v>
       </c>
       <c r="G26" t="n">
-        <v>125.6621816636808</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="H26" t="n">
-        <v>125.6621816636808</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="I26" t="n">
         <v>38.49022283387792</v>
       </c>
       <c r="J26" t="n">
-        <v>129.8950878662135</v>
+        <v>129.8950878662134</v>
       </c>
       <c r="K26" t="n">
-        <v>317.625804528744</v>
+        <v>317.6258045287437</v>
       </c>
       <c r="L26" t="n">
-        <v>587.4241206920574</v>
+        <v>587.4241206920572</v>
       </c>
       <c r="M26" t="n">
-        <v>919.2961694379755</v>
+        <v>919.2961694379751</v>
       </c>
       <c r="N26" t="n">
         <v>1261.15206327298</v>
@@ -6251,25 +6251,25 @@
         <v>1924.511141693896</v>
       </c>
       <c r="S26" t="n">
-        <v>1924.511141693896</v>
+        <v>1787.518529603105</v>
       </c>
       <c r="T26" t="n">
-        <v>1713.403925808791</v>
+        <v>1576.411313718</v>
       </c>
       <c r="U26" t="n">
-        <v>1627.824179768931</v>
+        <v>1322.787094567725</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.824179768931</v>
+        <v>1218.489013349991</v>
       </c>
       <c r="W26" t="n">
-        <v>1275.055524498817</v>
+        <v>865.7203580798773</v>
       </c>
       <c r="X26" t="n">
-        <v>901.5897662377367</v>
+        <v>865.7203580798773</v>
       </c>
       <c r="Y26" t="n">
-        <v>511.4504342619251</v>
+        <v>865.7203580798773</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>38.49022283387792</v>
       </c>
       <c r="J27" t="n">
-        <v>198.9426122911356</v>
+        <v>195.0326576836601</v>
       </c>
       <c r="K27" t="n">
-        <v>357.3123981323914</v>
+        <v>334.0716062190533</v>
       </c>
       <c r="L27" t="n">
-        <v>590.5899640653558</v>
+        <v>567.3491721520177</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.906471634595</v>
+        <v>858.9299567761046</v>
       </c>
       <c r="N27" t="n">
-        <v>1380.613176917726</v>
+        <v>1172.636662059235</v>
       </c>
       <c r="O27" t="n">
-        <v>1645.373729473532</v>
+        <v>1437.397214615041</v>
       </c>
       <c r="P27" t="n">
-        <v>1838.534348358918</v>
+        <v>1630.557833500427</v>
       </c>
       <c r="Q27" t="n">
         <v>1917.737910271212</v>
@@ -6330,25 +6330,25 @@
         <v>1924.511141693896</v>
       </c>
       <c r="S27" t="n">
-        <v>1783.427790261675</v>
+        <v>1783.427790261674</v>
       </c>
       <c r="T27" t="n">
-        <v>1783.427790261675</v>
+        <v>1588.257710301579</v>
       </c>
       <c r="U27" t="n">
-        <v>1783.427790261675</v>
+        <v>1360.14861621666</v>
       </c>
       <c r="V27" t="n">
-        <v>1548.275682029932</v>
+        <v>1360.14861621666</v>
       </c>
       <c r="W27" t="n">
-        <v>1347.173826748354</v>
+        <v>1360.14861621666</v>
       </c>
       <c r="X27" t="n">
-        <v>1139.322326542822</v>
+        <v>1307.53766356289</v>
       </c>
       <c r="Y27" t="n">
-        <v>931.5620277778677</v>
+        <v>1099.777364797936</v>
       </c>
     </row>
     <row r="28">
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>574.440056171949</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="C28" t="n">
-        <v>574.440056171949</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="D28" t="n">
-        <v>574.440056171949</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="E28" t="n">
-        <v>574.440056171949</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="F28" t="n">
-        <v>574.440056171949</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="G28" t="n">
-        <v>574.440056171949</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="H28" t="n">
-        <v>574.440056171949</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="I28" t="n">
-        <v>574.440056171949</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="J28" t="n">
-        <v>583.14084415408</v>
+        <v>583.1408441540796</v>
       </c>
       <c r="K28" t="n">
-        <v>727.2757482987643</v>
+        <v>727.2757482987638</v>
       </c>
       <c r="L28" t="n">
-        <v>967.2452362962622</v>
+        <v>967.2452362962617</v>
       </c>
       <c r="M28" t="n">
         <v>1230.648538279169</v>
       </c>
       <c r="N28" t="n">
-        <v>1493.223314898104</v>
+        <v>1493.223314898103</v>
       </c>
       <c r="O28" t="n">
-        <v>1719.737324550319</v>
+        <v>1719.737324550318</v>
       </c>
       <c r="P28" t="n">
         <v>1890.038509083276</v>
@@ -6406,28 +6406,28 @@
         <v>1924.511141693896</v>
       </c>
       <c r="R28" t="n">
-        <v>1811.046884271862</v>
+        <v>1832.531711671145</v>
       </c>
       <c r="S28" t="n">
-        <v>1610.200871723391</v>
+        <v>1631.685699122674</v>
       </c>
       <c r="T28" t="n">
-        <v>1386.188424088228</v>
+        <v>1407.67325148751</v>
       </c>
       <c r="U28" t="n">
-        <v>1097.056887015513</v>
+        <v>1118.541714414796</v>
       </c>
       <c r="V28" t="n">
-        <v>842.3723988096266</v>
+        <v>863.8572262089092</v>
       </c>
       <c r="W28" t="n">
-        <v>574.440056171949</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="X28" t="n">
-        <v>574.440056171949</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="Y28" t="n">
-        <v>574.440056171949</v>
+        <v>574.4400561719485</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1147.771969653962</v>
+        <v>605.1243671600332</v>
       </c>
       <c r="C29" t="n">
-        <v>1147.771969653962</v>
+        <v>236.1618502196215</v>
       </c>
       <c r="D29" t="n">
-        <v>1147.771969653962</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="E29" t="n">
-        <v>1147.771969653962</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="F29" t="n">
-        <v>736.7860648643548</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="G29" t="n">
-        <v>320.541834407963</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="H29" t="n">
-        <v>125.6621816636808</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="I29" t="n">
         <v>38.49022283387792</v>
       </c>
       <c r="J29" t="n">
-        <v>129.8950878662134</v>
+        <v>129.8950878662135</v>
       </c>
       <c r="K29" t="n">
-        <v>317.6258045287437</v>
+        <v>317.6258045287441</v>
       </c>
       <c r="L29" t="n">
-        <v>587.4241206920572</v>
+        <v>587.4241206920578</v>
       </c>
       <c r="M29" t="n">
-        <v>919.2961694379751</v>
+        <v>919.2961694379755</v>
       </c>
       <c r="N29" t="n">
         <v>1261.15206327298</v>
@@ -6488,25 +6488,25 @@
         <v>1924.511141693896</v>
       </c>
       <c r="S29" t="n">
-        <v>1924.511141693896</v>
+        <v>1787.518529603106</v>
       </c>
       <c r="T29" t="n">
-        <v>1924.511141693896</v>
+        <v>1576.411313718</v>
       </c>
       <c r="U29" t="n">
-        <v>1924.511141693896</v>
+        <v>1322.787094567726</v>
       </c>
       <c r="V29" t="n">
-        <v>1924.511141693896</v>
+        <v>991.7242072241551</v>
       </c>
       <c r="W29" t="n">
-        <v>1924.511141693896</v>
+        <v>991.7242072241551</v>
       </c>
       <c r="X29" t="n">
-        <v>1924.511141693896</v>
+        <v>991.7242072241551</v>
       </c>
       <c r="Y29" t="n">
-        <v>1534.371809718084</v>
+        <v>991.7242072241551</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.5620277778677</v>
+        <v>302.402575856919</v>
       </c>
       <c r="C30" t="n">
-        <v>757.1089984967407</v>
+        <v>302.402575856919</v>
       </c>
       <c r="D30" t="n">
-        <v>608.1745888354894</v>
+        <v>302.402575856919</v>
       </c>
       <c r="E30" t="n">
-        <v>448.937133830034</v>
+        <v>302.402575856919</v>
       </c>
       <c r="F30" t="n">
         <v>302.402575856919</v>
@@ -6540,25 +6540,25 @@
         <v>38.49022283387792</v>
       </c>
       <c r="J30" t="n">
-        <v>198.9426122911356</v>
+        <v>74.11248730413085</v>
       </c>
       <c r="K30" t="n">
-        <v>337.9815608265287</v>
+        <v>334.0716062190533</v>
       </c>
       <c r="L30" t="n">
-        <v>571.2591267594931</v>
+        <v>567.3491721520177</v>
       </c>
       <c r="M30" t="n">
-        <v>862.8399113835801</v>
+        <v>858.9299567761046</v>
       </c>
       <c r="N30" t="n">
-        <v>1176.546616666711</v>
+        <v>1172.636662059235</v>
       </c>
       <c r="O30" t="n">
-        <v>1441.307169222516</v>
+        <v>1437.397214615041</v>
       </c>
       <c r="P30" t="n">
-        <v>1634.467788107903</v>
+        <v>1630.557833500427</v>
       </c>
       <c r="Q30" t="n">
         <v>1917.737910271212</v>
@@ -6567,25 +6567,25 @@
         <v>1924.511141693896</v>
       </c>
       <c r="S30" t="n">
-        <v>1783.427790261674</v>
+        <v>1783.427790261675</v>
       </c>
       <c r="T30" t="n">
-        <v>1769.626520496624</v>
+        <v>1588.25771030158</v>
       </c>
       <c r="U30" t="n">
-        <v>1769.626520496624</v>
+        <v>1360.14861621666</v>
       </c>
       <c r="V30" t="n">
-        <v>1769.626520496624</v>
+        <v>1124.996507984917</v>
       </c>
       <c r="W30" t="n">
-        <v>1515.389163768422</v>
+        <v>870.7591512567155</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.53766356289</v>
+        <v>662.9076510511827</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.777364797936</v>
+        <v>455.1473522862288</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>893.4928785121912</v>
+        <v>1084.597485506938</v>
       </c>
       <c r="C31" t="n">
-        <v>724.5566955842843</v>
+        <v>915.661302579031</v>
       </c>
       <c r="D31" t="n">
-        <v>574.4400561719485</v>
+        <v>765.5446631666953</v>
       </c>
       <c r="E31" t="n">
-        <v>574.4400561719485</v>
+        <v>617.6315695843022</v>
       </c>
       <c r="F31" t="n">
-        <v>574.4400561719485</v>
+        <v>470.7416220863918</v>
       </c>
       <c r="G31" t="n">
-        <v>574.4400561719485</v>
+        <v>302.5131651578855</v>
       </c>
       <c r="H31" t="n">
-        <v>574.4400561719485</v>
+        <v>151.622736043432</v>
       </c>
       <c r="I31" t="n">
-        <v>574.4400561719485</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="J31" t="n">
-        <v>583.1408441540796</v>
+        <v>47.19101081600897</v>
       </c>
       <c r="K31" t="n">
-        <v>727.2757482987638</v>
+        <v>191.3259149606933</v>
       </c>
       <c r="L31" t="n">
-        <v>967.2452362962617</v>
+        <v>431.2954029581912</v>
       </c>
       <c r="M31" t="n">
-        <v>1230.648538279169</v>
+        <v>694.6987049410982</v>
       </c>
       <c r="N31" t="n">
-        <v>1493.223314898103</v>
+        <v>957.2734815600328</v>
       </c>
       <c r="O31" t="n">
-        <v>1719.737324550318</v>
+        <v>1183.787491212247</v>
       </c>
       <c r="P31" t="n">
-        <v>1890.038509083276</v>
+        <v>1354.088675745205</v>
       </c>
       <c r="Q31" t="n">
-        <v>1924.511141693896</v>
+        <v>1388.561308355825</v>
       </c>
       <c r="R31" t="n">
-        <v>1924.511141693896</v>
+        <v>1388.561308355825</v>
       </c>
       <c r="S31" t="n">
-        <v>1924.511141693896</v>
+        <v>1187.715295807354</v>
       </c>
       <c r="T31" t="n">
-        <v>1924.511141693896</v>
+        <v>1187.715295807354</v>
       </c>
       <c r="U31" t="n">
-        <v>1924.511141693896</v>
+        <v>1187.715295807354</v>
       </c>
       <c r="V31" t="n">
-        <v>1813.340643420939</v>
+        <v>1187.715295807354</v>
       </c>
       <c r="W31" t="n">
-        <v>1523.923473383978</v>
+        <v>1187.715295807354</v>
       </c>
       <c r="X31" t="n">
-        <v>1295.933922485961</v>
+        <v>1187.715295807354</v>
       </c>
       <c r="Y31" t="n">
-        <v>1075.141343342431</v>
+        <v>1187.715295807354</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1151.506690979284</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="C32" t="n">
-        <v>782.5441740388726</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="D32" t="n">
-        <v>424.2784754321221</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="E32" t="n">
-        <v>38.49022283387792</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="F32" t="n">
-        <v>38.49022283387792</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="G32" t="n">
-        <v>38.49022283387792</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="H32" t="n">
-        <v>38.49022283387792</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="I32" t="n">
-        <v>38.49022283387792</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="J32" t="n">
-        <v>129.8950878662134</v>
+        <v>129.8950878662135</v>
       </c>
       <c r="K32" t="n">
-        <v>317.6258045287437</v>
+        <v>317.6258045287438</v>
       </c>
       <c r="L32" t="n">
-        <v>587.4241206920572</v>
+        <v>587.4241206920568</v>
       </c>
       <c r="M32" t="n">
-        <v>919.2961694379751</v>
+        <v>919.2961694379746</v>
       </c>
       <c r="N32" t="n">
-        <v>1261.15206327298</v>
+        <v>1261.152063272979</v>
       </c>
       <c r="O32" t="n">
-        <v>1570.621628682068</v>
+        <v>1570.621628682067</v>
       </c>
       <c r="P32" t="n">
         <v>1800.245742068328</v>
@@ -6728,22 +6728,22 @@
         <v>1787.518529603105</v>
       </c>
       <c r="T32" t="n">
-        <v>1576.411313718</v>
+        <v>1787.518529603105</v>
       </c>
       <c r="U32" t="n">
-        <v>1576.411313718</v>
+        <v>1533.89431045283</v>
       </c>
       <c r="V32" t="n">
-        <v>1245.348426374429</v>
+        <v>1202.83142310926</v>
       </c>
       <c r="W32" t="n">
-        <v>1245.348426374429</v>
+        <v>850.0627678391459</v>
       </c>
       <c r="X32" t="n">
-        <v>1245.348426374429</v>
+        <v>476.597009578066</v>
       </c>
       <c r="Y32" t="n">
-        <v>1245.348426374429</v>
+        <v>86.45767760225425</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6753,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>339.8655472367657</v>
+        <v>286.9320152661603</v>
       </c>
       <c r="C33" t="n">
-        <v>165.4125179556386</v>
+        <v>286.9320152661603</v>
       </c>
       <c r="D33" t="n">
-        <v>165.4125179556386</v>
+        <v>286.9320152661603</v>
       </c>
       <c r="E33" t="n">
-        <v>165.4125179556386</v>
+        <v>286.9320152661603</v>
       </c>
       <c r="F33" t="n">
-        <v>165.4125179556386</v>
+        <v>272.0372668957311</v>
       </c>
       <c r="G33" t="n">
-        <v>165.4125179556386</v>
+        <v>135.0472089944507</v>
       </c>
       <c r="H33" t="n">
-        <v>68.85553179506583</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="I33" t="n">
-        <v>38.49022283387792</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="J33" t="n">
-        <v>198.9426122911356</v>
+        <v>74.11248730413084</v>
       </c>
       <c r="K33" t="n">
-        <v>337.9815608265287</v>
+        <v>474.9720204819768</v>
       </c>
       <c r="L33" t="n">
-        <v>571.2591267594931</v>
+        <v>708.2495864149412</v>
       </c>
       <c r="M33" t="n">
-        <v>862.8399113835801</v>
+        <v>999.830371039028</v>
       </c>
       <c r="N33" t="n">
-        <v>1176.546616666711</v>
+        <v>1313.537076322159</v>
       </c>
       <c r="O33" t="n">
-        <v>1441.307169222516</v>
+        <v>1578.297628877964</v>
       </c>
       <c r="P33" t="n">
-        <v>1634.467788107903</v>
+        <v>1845.307579781602</v>
       </c>
       <c r="Q33" t="n">
-        <v>1921.647864878687</v>
+        <v>1924.511141693896</v>
       </c>
       <c r="R33" t="n">
         <v>1924.511141693896</v>
@@ -6810,19 +6810,19 @@
         <v>1588.257710301579</v>
       </c>
       <c r="U33" t="n">
-        <v>1360.14861621666</v>
+        <v>1360.148616216659</v>
       </c>
       <c r="V33" t="n">
         <v>1124.996507984917</v>
       </c>
       <c r="W33" t="n">
-        <v>870.7591512567153</v>
+        <v>870.7591512567151</v>
       </c>
       <c r="X33" t="n">
-        <v>662.9076510511825</v>
+        <v>662.9076510511823</v>
       </c>
       <c r="Y33" t="n">
-        <v>455.1473522862286</v>
+        <v>455.1473522862283</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38.49022283387792</v>
+        <v>687.5725693815026</v>
       </c>
       <c r="C34" t="n">
-        <v>38.49022283387792</v>
+        <v>687.5725693815026</v>
       </c>
       <c r="D34" t="n">
-        <v>38.49022283387792</v>
+        <v>687.5725693815026</v>
       </c>
       <c r="E34" t="n">
-        <v>38.49022283387792</v>
+        <v>687.5725693815026</v>
       </c>
       <c r="F34" t="n">
-        <v>38.49022283387792</v>
+        <v>687.5725693815026</v>
       </c>
       <c r="G34" t="n">
-        <v>38.49022283387792</v>
+        <v>687.5725693815026</v>
       </c>
       <c r="H34" t="n">
-        <v>38.49022283387792</v>
+        <v>687.5725693815026</v>
       </c>
       <c r="I34" t="n">
-        <v>38.49022283387792</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="J34" t="n">
-        <v>47.19101081600895</v>
+        <v>583.1408441540796</v>
       </c>
       <c r="K34" t="n">
-        <v>191.3259149606932</v>
+        <v>727.2757482987638</v>
       </c>
       <c r="L34" t="n">
-        <v>431.2954029581912</v>
+        <v>967.2452362962617</v>
       </c>
       <c r="M34" t="n">
-        <v>694.6987049410982</v>
+        <v>1230.648538279169</v>
       </c>
       <c r="N34" t="n">
-        <v>957.2734815600328</v>
+        <v>1493.223314898103</v>
       </c>
       <c r="O34" t="n">
-        <v>1183.787491212247</v>
+        <v>1719.737324550318</v>
       </c>
       <c r="P34" t="n">
-        <v>1354.088675745205</v>
+        <v>1890.038509083275</v>
       </c>
       <c r="Q34" t="n">
-        <v>1388.561308355825</v>
+        <v>1924.511141693896</v>
       </c>
       <c r="R34" t="n">
-        <v>1388.561308355825</v>
+        <v>1811.046884271862</v>
       </c>
       <c r="S34" t="n">
-        <v>1316.528444928133</v>
+        <v>1610.200871723391</v>
       </c>
       <c r="T34" t="n">
-        <v>1092.51599729297</v>
+        <v>1386.188424088227</v>
       </c>
       <c r="U34" t="n">
-        <v>803.3844602202555</v>
+        <v>1097.056887015513</v>
       </c>
       <c r="V34" t="n">
-        <v>548.6999720143687</v>
+        <v>842.3723988096261</v>
       </c>
       <c r="W34" t="n">
-        <v>259.282801977408</v>
+        <v>687.5725693815026</v>
       </c>
       <c r="X34" t="n">
-        <v>259.282801977408</v>
+        <v>687.5725693815026</v>
       </c>
       <c r="Y34" t="n">
-        <v>38.49022283387792</v>
+        <v>687.5725693815026</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1609.774309284872</v>
+        <v>1133.281065633507</v>
       </c>
       <c r="C35" t="n">
-        <v>1609.774309284872</v>
+        <v>764.3185486930952</v>
       </c>
       <c r="D35" t="n">
-        <v>1251.508610678122</v>
+        <v>764.3185486930952</v>
       </c>
       <c r="E35" t="n">
-        <v>865.7203580798773</v>
+        <v>764.3185486930952</v>
       </c>
       <c r="F35" t="n">
-        <v>454.7344532902697</v>
+        <v>764.3185486930952</v>
       </c>
       <c r="G35" t="n">
-        <v>38.49022283387791</v>
+        <v>348.0743182367034</v>
       </c>
       <c r="H35" t="n">
-        <v>38.49022283387791</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="I35" t="n">
-        <v>38.49022283387791</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="J35" t="n">
         <v>129.8950878662135</v>
       </c>
       <c r="K35" t="n">
-        <v>317.6258045287438</v>
+        <v>317.6258045287441</v>
       </c>
       <c r="L35" t="n">
-        <v>587.4241206920568</v>
+        <v>587.4241206920578</v>
       </c>
       <c r="M35" t="n">
-        <v>919.2961694379746</v>
+        <v>919.2961694379755</v>
       </c>
       <c r="N35" t="n">
-        <v>1261.152063272979</v>
+        <v>1261.15206327298</v>
       </c>
       <c r="O35" t="n">
-        <v>1570.621628682067</v>
+        <v>1570.621628682068</v>
       </c>
       <c r="P35" t="n">
         <v>1800.245742068328</v>
@@ -6965,22 +6965,22 @@
         <v>1924.511141693896</v>
       </c>
       <c r="T35" t="n">
-        <v>1924.511141693896</v>
+        <v>1854.483284952889</v>
       </c>
       <c r="U35" t="n">
-        <v>1924.511141693896</v>
+        <v>1854.483284952889</v>
       </c>
       <c r="V35" t="n">
-        <v>1924.511141693896</v>
+        <v>1523.420397609319</v>
       </c>
       <c r="W35" t="n">
-        <v>1924.511141693896</v>
+        <v>1523.420397609319</v>
       </c>
       <c r="X35" t="n">
-        <v>1924.511141693896</v>
+        <v>1523.420397609319</v>
       </c>
       <c r="Y35" t="n">
-        <v>1609.774309284872</v>
+        <v>1133.281065633507</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>698.0149837160146</v>
+        <v>349.9333100162853</v>
       </c>
       <c r="C36" t="n">
-        <v>523.5619544348876</v>
+        <v>175.4802807351583</v>
       </c>
       <c r="D36" t="n">
-        <v>374.6275447736364</v>
+        <v>175.4802807351583</v>
       </c>
       <c r="E36" t="n">
-        <v>215.3900897681808</v>
+        <v>175.4802807351583</v>
       </c>
       <c r="F36" t="n">
-        <v>68.85553179506582</v>
+        <v>175.4802807351583</v>
       </c>
       <c r="G36" t="n">
-        <v>68.85553179506582</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="H36" t="n">
-        <v>68.85553179506582</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="I36" t="n">
-        <v>38.49022283387791</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="J36" t="n">
-        <v>198.9426122911356</v>
+        <v>191.4532175287173</v>
       </c>
       <c r="K36" t="n">
-        <v>337.9815608265287</v>
+        <v>330.4921660641104</v>
       </c>
       <c r="L36" t="n">
-        <v>571.2591267594931</v>
+        <v>563.7697319970748</v>
       </c>
       <c r="M36" t="n">
-        <v>862.8399113835801</v>
+        <v>855.3505166211618</v>
       </c>
       <c r="N36" t="n">
-        <v>1176.546616666711</v>
+        <v>1169.057221904292</v>
       </c>
       <c r="O36" t="n">
-        <v>1441.307169222516</v>
+        <v>1645.373729473532</v>
       </c>
       <c r="P36" t="n">
-        <v>1634.467788107903</v>
+        <v>1838.534348358918</v>
       </c>
       <c r="Q36" t="n">
-        <v>1921.647864878687</v>
+        <v>1917.737910271212</v>
       </c>
       <c r="R36" t="n">
         <v>1924.511141693896</v>
       </c>
       <c r="S36" t="n">
-        <v>1831.125341731366</v>
+        <v>1783.427790261675</v>
       </c>
       <c r="T36" t="n">
-        <v>1831.125341731366</v>
+        <v>1588.25771030158</v>
       </c>
       <c r="U36" t="n">
-        <v>1603.016247646446</v>
+        <v>1360.14861621666</v>
       </c>
       <c r="V36" t="n">
-        <v>1367.864139414703</v>
+        <v>1124.996507984917</v>
       </c>
       <c r="W36" t="n">
-        <v>1113.626782686501</v>
+        <v>870.7591512567155</v>
       </c>
       <c r="X36" t="n">
-        <v>905.7752824809686</v>
+        <v>662.9076510511827</v>
       </c>
       <c r="Y36" t="n">
-        <v>698.0149837160146</v>
+        <v>455.1473522862288</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>468.7135434470772</v>
+        <v>574.440056171949</v>
       </c>
       <c r="C37" t="n">
-        <v>468.7135434470772</v>
+        <v>574.440056171949</v>
       </c>
       <c r="D37" t="n">
-        <v>468.7135434470772</v>
+        <v>574.440056171949</v>
       </c>
       <c r="E37" t="n">
-        <v>468.7135434470772</v>
+        <v>574.440056171949</v>
       </c>
       <c r="F37" t="n">
-        <v>357.6091088768376</v>
+        <v>574.440056171949</v>
       </c>
       <c r="G37" t="n">
-        <v>189.3806519483314</v>
+        <v>574.440056171949</v>
       </c>
       <c r="H37" t="n">
-        <v>38.49022283387791</v>
+        <v>574.440056171949</v>
       </c>
       <c r="I37" t="n">
-        <v>38.49022283387791</v>
+        <v>574.440056171949</v>
       </c>
       <c r="J37" t="n">
-        <v>47.19101081600895</v>
+        <v>583.14084415408</v>
       </c>
       <c r="K37" t="n">
-        <v>191.3259149606932</v>
+        <v>727.2757482987643</v>
       </c>
       <c r="L37" t="n">
-        <v>431.2954029581912</v>
+        <v>967.2452362962622</v>
       </c>
       <c r="M37" t="n">
-        <v>694.6987049410982</v>
+        <v>1230.648538279169</v>
       </c>
       <c r="N37" t="n">
-        <v>957.2734815600328</v>
+        <v>1493.223314898104</v>
       </c>
       <c r="O37" t="n">
-        <v>1183.787491212247</v>
+        <v>1719.737324550319</v>
       </c>
       <c r="P37" t="n">
-        <v>1354.088675745205</v>
+        <v>1890.038509083276</v>
       </c>
       <c r="Q37" t="n">
-        <v>1388.561308355825</v>
+        <v>1924.511141693896</v>
       </c>
       <c r="R37" t="n">
-        <v>1388.561308355825</v>
+        <v>1924.511141693896</v>
       </c>
       <c r="S37" t="n">
-        <v>1388.561308355825</v>
+        <v>1723.665129145425</v>
       </c>
       <c r="T37" t="n">
-        <v>1388.561308355825</v>
+        <v>1499.652681510262</v>
       </c>
       <c r="U37" t="n">
-        <v>1388.561308355825</v>
+        <v>1346.531265312814</v>
       </c>
       <c r="V37" t="n">
-        <v>1388.561308355825</v>
+        <v>1091.846777106927</v>
       </c>
       <c r="W37" t="n">
-        <v>1099.144138318864</v>
+        <v>802.4296070699663</v>
       </c>
       <c r="X37" t="n">
-        <v>871.1545874208471</v>
+        <v>574.440056171949</v>
       </c>
       <c r="Y37" t="n">
-        <v>650.3620082773169</v>
+        <v>574.440056171949</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.7559214406284</v>
+        <v>782.5441740388726</v>
       </c>
       <c r="C38" t="n">
-        <v>396.7559214406284</v>
+        <v>782.5441740388726</v>
       </c>
       <c r="D38" t="n">
-        <v>38.49022283387792</v>
+        <v>424.2784754321221</v>
       </c>
       <c r="E38" t="n">
         <v>38.49022283387792</v>
@@ -7175,13 +7175,13 @@
         <v>129.8950878662135</v>
       </c>
       <c r="K38" t="n">
-        <v>317.6258045287441</v>
+        <v>317.6258045287437</v>
       </c>
       <c r="L38" t="n">
-        <v>587.4241206920575</v>
+        <v>587.4241206920572</v>
       </c>
       <c r="M38" t="n">
-        <v>919.2961694379755</v>
+        <v>919.2961694379753</v>
       </c>
       <c r="N38" t="n">
         <v>1261.15206327298</v>
@@ -7190,7 +7190,7 @@
         <v>1570.621628682068</v>
       </c>
       <c r="P38" t="n">
-        <v>1800.245742068329</v>
+        <v>1800.245742068328</v>
       </c>
       <c r="Q38" t="n">
         <v>1924.511141693896</v>
@@ -7199,25 +7199,25 @@
         <v>1924.511141693896</v>
       </c>
       <c r="S38" t="n">
-        <v>1787.518529603106</v>
+        <v>1924.511141693896</v>
       </c>
       <c r="T38" t="n">
-        <v>1787.518529603106</v>
+        <v>1713.403925808791</v>
       </c>
       <c r="U38" t="n">
-        <v>1787.518529603106</v>
+        <v>1466.375716652557</v>
       </c>
       <c r="V38" t="n">
-        <v>1513.129666947634</v>
+        <v>1135.312829308987</v>
       </c>
       <c r="W38" t="n">
-        <v>1160.36101167752</v>
+        <v>782.5441740388726</v>
       </c>
       <c r="X38" t="n">
-        <v>786.8952534164401</v>
+        <v>782.5441740388726</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.7559214406284</v>
+        <v>782.5441740388726</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>717.2542034579985</v>
+        <v>589.7536316342726</v>
       </c>
       <c r="C39" t="n">
-        <v>542.8011741768715</v>
+        <v>589.7536316342726</v>
       </c>
       <c r="D39" t="n">
-        <v>393.8667645156203</v>
+        <v>440.8192219730212</v>
       </c>
       <c r="E39" t="n">
-        <v>302.402575856919</v>
+        <v>281.5817669675657</v>
       </c>
       <c r="F39" t="n">
-        <v>302.402575856919</v>
+        <v>135.0472089944507</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4125179556386</v>
+        <v>135.0472089944507</v>
       </c>
       <c r="H39" t="n">
-        <v>68.85553179506583</v>
+        <v>38.49022283387792</v>
       </c>
       <c r="I39" t="n">
         <v>38.49022283387792</v>
@@ -7281,22 +7281,22 @@
         <v>1783.427790261675</v>
       </c>
       <c r="T39" t="n">
-        <v>1783.427790261675</v>
+        <v>1588.25771030158</v>
       </c>
       <c r="U39" t="n">
-        <v>1555.318696176755</v>
+        <v>1360.14861621666</v>
       </c>
       <c r="V39" t="n">
-        <v>1555.318696176755</v>
+        <v>1124.996507984917</v>
       </c>
       <c r="W39" t="n">
-        <v>1301.081339448553</v>
+        <v>870.7591512567155</v>
       </c>
       <c r="X39" t="n">
-        <v>1093.22983924302</v>
+        <v>662.9076510511827</v>
       </c>
       <c r="Y39" t="n">
-        <v>885.4695404780666</v>
+        <v>589.7536316342726</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>38.49022283387792</v>
+        <v>937.7075380090275</v>
       </c>
       <c r="C40" t="n">
-        <v>38.49022283387792</v>
+        <v>768.7713550811206</v>
       </c>
       <c r="D40" t="n">
-        <v>38.49022283387792</v>
+        <v>618.6547156687849</v>
       </c>
       <c r="E40" t="n">
-        <v>38.49022283387792</v>
+        <v>470.7416220863918</v>
       </c>
       <c r="F40" t="n">
-        <v>38.49022283387792</v>
+        <v>470.7416220863918</v>
       </c>
       <c r="G40" t="n">
-        <v>38.49022283387792</v>
+        <v>302.5131651578855</v>
       </c>
       <c r="H40" t="n">
-        <v>38.49022283387792</v>
+        <v>151.622736043432</v>
       </c>
       <c r="I40" t="n">
         <v>38.49022283387792</v>
@@ -7354,28 +7354,28 @@
         <v>1388.561308355825</v>
       </c>
       <c r="R40" t="n">
-        <v>1296.581878333074</v>
+        <v>1275.097050933791</v>
       </c>
       <c r="S40" t="n">
-        <v>1095.735865784603</v>
+        <v>1119.356002839267</v>
       </c>
       <c r="T40" t="n">
-        <v>871.7234181494396</v>
+        <v>1119.356002839267</v>
       </c>
       <c r="U40" t="n">
-        <v>582.5918810767254</v>
+        <v>1119.356002839267</v>
       </c>
       <c r="V40" t="n">
-        <v>327.9073928708385</v>
+        <v>1119.356002839267</v>
       </c>
       <c r="W40" t="n">
-        <v>38.49022283387792</v>
+        <v>1119.356002839267</v>
       </c>
       <c r="X40" t="n">
-        <v>38.49022283387792</v>
+        <v>1119.356002839267</v>
       </c>
       <c r="Y40" t="n">
-        <v>38.49022283387792</v>
+        <v>1119.356002839267</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>850.5402671043992</v>
+        <v>1924.511141693896</v>
       </c>
       <c r="C41" t="n">
-        <v>481.5777501639874</v>
+        <v>1609.774309284872</v>
       </c>
       <c r="D41" t="n">
-        <v>123.3120515572369</v>
+        <v>1251.508610678122</v>
       </c>
       <c r="E41" t="n">
-        <v>123.3120515572369</v>
+        <v>865.7203580798773</v>
       </c>
       <c r="F41" t="n">
-        <v>123.3120515572369</v>
+        <v>454.7344532902697</v>
       </c>
       <c r="G41" t="n">
-        <v>123.3120515572369</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="H41" t="n">
-        <v>123.3120515572369</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="I41" t="n">
         <v>38.49022283387791</v>
@@ -7445,16 +7445,16 @@
         <v>1924.511141693896</v>
       </c>
       <c r="V41" t="n">
-        <v>1593.448254350325</v>
+        <v>1924.511141693896</v>
       </c>
       <c r="W41" t="n">
-        <v>1240.679599080211</v>
+        <v>1924.511141693896</v>
       </c>
       <c r="X41" t="n">
-        <v>1240.679599080211</v>
+        <v>1924.511141693896</v>
       </c>
       <c r="Y41" t="n">
-        <v>850.5402671043992</v>
+        <v>1924.511141693896</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>617.6721029422845</v>
+        <v>804.639732656107</v>
       </c>
       <c r="C42" t="n">
-        <v>443.2190736611575</v>
+        <v>630.18670337498</v>
       </c>
       <c r="D42" t="n">
-        <v>294.2846639999062</v>
+        <v>481.2522937137288</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0472089944507</v>
+        <v>322.0148387082733</v>
       </c>
       <c r="F42" t="n">
-        <v>135.0472089944507</v>
+        <v>175.4802807351583</v>
       </c>
       <c r="G42" t="n">
-        <v>135.0472089944507</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="H42" t="n">
         <v>38.49022283387791</v>
@@ -7491,22 +7491,22 @@
         <v>198.9426122911356</v>
       </c>
       <c r="K42" t="n">
-        <v>337.9815608265287</v>
+        <v>379.4383187914351</v>
       </c>
       <c r="L42" t="n">
-        <v>571.2591267594931</v>
+        <v>612.7158847243995</v>
       </c>
       <c r="M42" t="n">
-        <v>862.8399113835801</v>
+        <v>904.2966693484864</v>
       </c>
       <c r="N42" t="n">
-        <v>1176.546616666711</v>
+        <v>1380.613176917725</v>
       </c>
       <c r="O42" t="n">
-        <v>1441.307169222516</v>
+        <v>1645.373729473531</v>
       </c>
       <c r="P42" t="n">
-        <v>1634.467788107903</v>
+        <v>1838.534348358918</v>
       </c>
       <c r="Q42" t="n">
         <v>1917.737910271212</v>
@@ -7515,25 +7515,25 @@
         <v>1924.511141693896</v>
       </c>
       <c r="S42" t="n">
-        <v>1783.427790261674</v>
+        <v>1924.511141693896</v>
       </c>
       <c r="T42" t="n">
-        <v>1783.427790261674</v>
+        <v>1924.511141693896</v>
       </c>
       <c r="U42" t="n">
-        <v>1690.888703892783</v>
+        <v>1877.856333606606</v>
       </c>
       <c r="V42" t="n">
-        <v>1455.736595661041</v>
+        <v>1642.704225374863</v>
       </c>
       <c r="W42" t="n">
-        <v>1201.499238932839</v>
+        <v>1388.466868646662</v>
       </c>
       <c r="X42" t="n">
-        <v>993.6477387273064</v>
+        <v>1180.615368441129</v>
       </c>
       <c r="Y42" t="n">
-        <v>785.8874399623526</v>
+        <v>972.8550696761749</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>306.4225654715558</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="C43" t="n">
-        <v>306.4225654715558</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="D43" t="n">
-        <v>306.4225654715558</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="E43" t="n">
-        <v>306.4225654715558</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="F43" t="n">
-        <v>306.4225654715558</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="G43" t="n">
-        <v>302.5131651578855</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="H43" t="n">
-        <v>151.622736043432</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="I43" t="n">
-        <v>38.49022283387791</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="J43" t="n">
-        <v>47.19101081600895</v>
+        <v>583.1408441540796</v>
       </c>
       <c r="K43" t="n">
-        <v>191.3259149606932</v>
+        <v>727.2757482987638</v>
       </c>
       <c r="L43" t="n">
-        <v>431.2954029581912</v>
+        <v>967.2452362962617</v>
       </c>
       <c r="M43" t="n">
-        <v>694.6987049410982</v>
+        <v>1230.648538279169</v>
       </c>
       <c r="N43" t="n">
-        <v>957.2734815600328</v>
+        <v>1493.223314898103</v>
       </c>
       <c r="O43" t="n">
-        <v>1183.787491212247</v>
+        <v>1719.737324550318</v>
       </c>
       <c r="P43" t="n">
-        <v>1354.088675745205</v>
+        <v>1890.038509083275</v>
       </c>
       <c r="Q43" t="n">
-        <v>1388.561308355825</v>
+        <v>1924.511141693896</v>
       </c>
       <c r="R43" t="n">
-        <v>1275.097050933791</v>
+        <v>1811.046884271862</v>
       </c>
       <c r="S43" t="n">
-        <v>1074.25103838532</v>
+        <v>1610.200871723391</v>
       </c>
       <c r="T43" t="n">
-        <v>850.2385907501568</v>
+        <v>1386.188424088227</v>
       </c>
       <c r="U43" t="n">
-        <v>561.1070536774427</v>
+        <v>1097.056887015513</v>
       </c>
       <c r="V43" t="n">
-        <v>306.4225654715558</v>
+        <v>842.3723988096261</v>
       </c>
       <c r="W43" t="n">
-        <v>306.4225654715558</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="X43" t="n">
-        <v>306.4225654715558</v>
+        <v>574.4400561719485</v>
       </c>
       <c r="Y43" t="n">
-        <v>306.4225654715558</v>
+        <v>574.4400561719485</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>494.6246986040925</v>
+        <v>1150.106801291339</v>
       </c>
       <c r="C44" t="n">
-        <v>125.6621816636808</v>
+        <v>1150.106801291339</v>
       </c>
       <c r="D44" t="n">
-        <v>125.6621816636808</v>
+        <v>1150.106801291339</v>
       </c>
       <c r="E44" t="n">
-        <v>125.6621816636808</v>
+        <v>764.3185486930952</v>
       </c>
       <c r="F44" t="n">
-        <v>125.6621816636808</v>
+        <v>764.3185486930952</v>
       </c>
       <c r="G44" t="n">
-        <v>125.6621816636808</v>
+        <v>348.0743182367034</v>
       </c>
       <c r="H44" t="n">
-        <v>125.6621816636808</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="I44" t="n">
         <v>38.49022283387791</v>
       </c>
       <c r="J44" t="n">
-        <v>129.8950878662135</v>
+        <v>129.8950878662128</v>
       </c>
       <c r="K44" t="n">
-        <v>317.6258045287437</v>
+        <v>317.6258045287431</v>
       </c>
       <c r="L44" t="n">
-        <v>587.4241206920572</v>
+        <v>587.4241206920565</v>
       </c>
       <c r="M44" t="n">
-        <v>919.2961694379753</v>
+        <v>919.2961694379746</v>
       </c>
       <c r="N44" t="n">
-        <v>1261.15206327298</v>
+        <v>1261.152063272979</v>
       </c>
       <c r="O44" t="n">
-        <v>1570.621628682068</v>
+        <v>1570.621628682067</v>
       </c>
       <c r="P44" t="n">
         <v>1800.245742068328</v>
@@ -7682,16 +7682,16 @@
         <v>1322.787094567725</v>
       </c>
       <c r="V44" t="n">
-        <v>1237.532685850018</v>
+        <v>1150.106801291339</v>
       </c>
       <c r="W44" t="n">
-        <v>884.7640305799042</v>
+        <v>1150.106801291339</v>
       </c>
       <c r="X44" t="n">
-        <v>884.7640305799042</v>
+        <v>1150.106801291339</v>
       </c>
       <c r="Y44" t="n">
-        <v>494.6246986040925</v>
+        <v>1150.106801291339</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>508.4122197493712</v>
+        <v>667.6496747548267</v>
       </c>
       <c r="C45" t="n">
-        <v>333.9591904682442</v>
+        <v>493.1966454736997</v>
       </c>
       <c r="D45" t="n">
-        <v>185.0247808069929</v>
+        <v>344.2622358124485</v>
       </c>
       <c r="E45" t="n">
         <v>185.0247808069929</v>
@@ -7725,52 +7725,52 @@
         <v>38.49022283387791</v>
       </c>
       <c r="J45" t="n">
-        <v>198.9426122911356</v>
+        <v>74.11248730413084</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8448376417369</v>
+        <v>334.0716062190528</v>
       </c>
       <c r="L45" t="n">
-        <v>574.1224035747014</v>
+        <v>567.3491721520172</v>
       </c>
       <c r="M45" t="n">
-        <v>865.7031881987883</v>
+        <v>858.9299567761042</v>
       </c>
       <c r="N45" t="n">
-        <v>1179.409893481919</v>
+        <v>1172.636662059235</v>
       </c>
       <c r="O45" t="n">
-        <v>1444.170446037725</v>
+        <v>1437.397214615041</v>
       </c>
       <c r="P45" t="n">
-        <v>1637.331064923111</v>
+        <v>1630.557833500427</v>
       </c>
       <c r="Q45" t="n">
-        <v>1924.511141693896</v>
+        <v>1917.737910271212</v>
       </c>
       <c r="R45" t="n">
         <v>1924.511141693896</v>
       </c>
       <c r="S45" t="n">
-        <v>1783.427790261674</v>
+        <v>1924.511141693896</v>
       </c>
       <c r="T45" t="n">
-        <v>1588.257710301579</v>
+        <v>1729.341061733801</v>
       </c>
       <c r="U45" t="n">
-        <v>1360.148616216659</v>
+        <v>1501.231967648881</v>
       </c>
       <c r="V45" t="n">
-        <v>1138.625212262595</v>
+        <v>1266.079859417138</v>
       </c>
       <c r="W45" t="n">
-        <v>884.3878555343931</v>
+        <v>1251.476810745381</v>
       </c>
       <c r="X45" t="n">
-        <v>884.3878555343931</v>
+        <v>1043.625310539849</v>
       </c>
       <c r="Y45" t="n">
-        <v>676.6275567694393</v>
+        <v>835.8650117748948</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>677.5055466268633</v>
+        <v>820.5745431829303</v>
       </c>
       <c r="C46" t="n">
-        <v>677.5055466268633</v>
+        <v>651.6383602550234</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3889072145275</v>
+        <v>501.5217208426876</v>
       </c>
       <c r="E46" t="n">
-        <v>379.4758136321344</v>
+        <v>353.6086272602945</v>
       </c>
       <c r="F46" t="n">
-        <v>232.5858661342241</v>
+        <v>206.7186797623841</v>
       </c>
       <c r="G46" t="n">
-        <v>64.35740920571783</v>
+        <v>38.49022283387791</v>
       </c>
       <c r="H46" t="n">
         <v>38.49022283387791</v>
@@ -7831,25 +7831,25 @@
         <v>1388.561308355825</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.715295807354</v>
+        <v>1388.561308355825</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.715295807354</v>
+        <v>1164.548860720662</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.715295807354</v>
+        <v>1164.548860720662</v>
       </c>
       <c r="V46" t="n">
-        <v>1187.715295807354</v>
+        <v>1164.548860720662</v>
       </c>
       <c r="W46" t="n">
-        <v>898.2981257703934</v>
+        <v>1164.548860720662</v>
       </c>
       <c r="X46" t="n">
-        <v>898.2981257703934</v>
+        <v>1164.548860720662</v>
       </c>
       <c r="Y46" t="n">
-        <v>677.5055466268633</v>
+        <v>1002.22300801317</v>
       </c>
     </row>
   </sheetData>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K5" t="n">
         <v>56.54227989916996</v>
@@ -8222,13 +8222,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M5" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P5" t="n">
         <v>46.34579576917247</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K6" t="n">
         <v>26.75787480980772</v>
@@ -8386,10 +8386,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O7" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>75.52794808997315</v>
+        <v>68.65190234826171</v>
       </c>
       <c r="K8" t="n">
-        <v>51.64037691895487</v>
+        <v>58.51642266066631</v>
       </c>
       <c r="L8" t="n">
         <v>26.78994699523963</v>
       </c>
       <c r="M8" t="n">
-        <v>4.417872862493069</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>6.977105843813376</v>
+        <v>11.39497870630645</v>
       </c>
       <c r="P8" t="n">
-        <v>40.80429423377234</v>
+        <v>47.68033997548378</v>
       </c>
       <c r="Q8" t="n">
-        <v>86.17771137138155</v>
+        <v>79.30166562967011</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8611,22 +8611,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>59.99978994537916</v>
+        <v>66.8758356870906</v>
       </c>
       <c r="L10" t="n">
-        <v>53.16942317027382</v>
+        <v>53.44724320024197</v>
       </c>
       <c r="M10" t="n">
-        <v>45.81160299249012</v>
+        <v>52.68764873420156</v>
       </c>
       <c r="N10" t="n">
-        <v>43.66145635451461</v>
+        <v>43.38363632454646</v>
       </c>
       <c r="O10" t="n">
-        <v>61.37159796783205</v>
+        <v>54.49555222612061</v>
       </c>
       <c r="P10" t="n">
-        <v>72.76092136617375</v>
+        <v>65.88487562446231</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>67.7536369652193</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8787,7 +8787,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>67.75363696521939</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>13.25757737128586</v>
+        <v>13.25757737128595</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>122.1415862419491</v>
       </c>
       <c r="Q15" t="n">
-        <v>67.75363696521916</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>122.1415862419483</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>41.57222071286053</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>67.7536369652189</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>122.1415862419489</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>2.892198803241058</v>
       </c>
       <c r="Q24" t="n">
-        <v>206.1278386373893</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>38.68002190961978</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,16 +9951,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1415862419488</v>
       </c>
       <c r="K27" t="n">
-        <v>19.52609828875021</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>186.6017403486387</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,7 +9972,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>122.1415862419487</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>206.1278386373893</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>74.59528486692034</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>41.57222071286076</v>
+        <v>38.68002190961978</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>118.5259901258449</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>213.6928838519531</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>41.57222071286053</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>41.57222071286122</v>
+        <v>41.57222071286098</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>41.87551309586505</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>164.2523255415238</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>206.127838637389</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>2.89219880324066</v>
+        <v>122.1415862419483</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>38.68002190961978</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.01702407393691</v>
+        <v>14.01702407393689</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23261,22 +23261,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>199.5514823951288</v>
       </c>
       <c r="H11" t="n">
-        <v>81.19902960536857</v>
+        <v>306.4882544487972</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>86.30023924150485</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>135.6226859698824</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>208.9961437262541</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0879769587719</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,13 +23334,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>67.73045612717272</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23349,10 +23349,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>135.6201573222675</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.59141629896709</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23385,19 +23385,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>139.6725179178992</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8280031440707</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>39.88260417519487</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>10.2429826504015</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5461723592212</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>149.381524823309</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>112.0011880774586</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>112.3296148478136</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.7723231588118</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.240221701987</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>134.6500196665136</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23504,7 +23504,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>412.0817881518278</v>
@@ -23513,7 +23513,7 @@
         <v>306.4882544487972</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>86.3002392415049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>135.6226859698824</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>208.9961437262541</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.0879769587719</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>27.6591857857108</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>247.8086027470669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23622,7 +23622,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>139.6725179178992</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>193.218379160494</v>
@@ -23631,7 +23631,7 @@
         <v>225.8280031440707</v>
       </c>
       <c r="V15" t="n">
-        <v>79.46481216412661</v>
+        <v>219.1373300820261</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -23662,13 +23662,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>55.95927074779134</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5461723592212</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>149.381524823309</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>133.2711672027485</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23729,28 +23729,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>158.0042665129888</v>
       </c>
       <c r="C17" t="n">
-        <v>285.2417796901668</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.0817881518278</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>306.4882544487972</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>86.30023924150485</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23780,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>135.6226859698824</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>208.9961437262541</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23811,16 +23811,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>52.40419665089929</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>135.6201573222675</v>
@@ -23874,10 +23874,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>149.4357937223798</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,7 +23905,7 @@
         <v>166.5461723592212</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>121.4361718112198</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>8.4767790908287</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>198.8375524229862</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.7723231588118</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>181.6737463186186</v>
       </c>
       <c r="G20" t="n">
         <v>412.0817881518278</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>135.6226859698824</v>
       </c>
       <c r="T20" t="n">
-        <v>208.9961437262541</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.0879769587719</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>359.3882655210189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>79.4648121641264</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24111,7 +24111,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>79.4648121641261</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>117.4818623670852</v>
+        <v>68.70581694081078</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5461723592212</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>149.381524823309</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>112.0011880774586</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,22 +24175,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>198.8375524229862</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.7723231588118</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.240221701987</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24206,7 +24206,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,13 +24218,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>280.9503879875082</v>
       </c>
       <c r="H23" t="n">
-        <v>306.4882544487972</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>86.30023924150485</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,19 +24257,19 @@
         <v>135.6226859698824</v>
       </c>
       <c r="T23" t="n">
-        <v>208.9961437262541</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0879769587719</v>
       </c>
       <c r="V23" t="n">
-        <v>262.4641949073203</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24282,13 +24282,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>108.2324630778443</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24297,13 +24297,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>122.0849726112209</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>95.59141629896709</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>30.06165587157603</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24342,13 +24342,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>77.5011308015289</v>
       </c>
       <c r="H25" t="n">
-        <v>149.381524823309</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>112.0011880774586</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.57214335812431</v>
+        <v>112.3296148478136</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>198.8375524229862</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.240221701987</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24449,19 +24449,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>412.0817881518278</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>306.4882544487972</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>86.30023924150485</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24491,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>135.6226859698824</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>166.3640283793104</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>224.4971580645782</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24573,19 +24573,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>193.218379160494</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8280031440707</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>52.60414643215799</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>153.6881420762452</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.26997912528999</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>21.26997912529021</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24680,25 +24680,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>158.9881305087968</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>412.0817881518278</v>
       </c>
       <c r="H29" t="n">
-        <v>113.5573982319579</v>
+        <v>306.4882544487972</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>86.30023924150485</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,16 +24728,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>135.6226859698824</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.9961437262541</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0879769587719</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24746,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,19 +24756,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>15.31585498485063</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24810,13 +24810,13 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>179.5551220930941</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8280031440707</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>77.7453479845254</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5461723592212</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>149.381524823309</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>112.0011880774586</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>112.3296148478136</v>
       </c>
       <c r="S31" t="n">
-        <v>198.8375524229862</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.7723231588118</v>
@@ -24895,16 +24895,16 @@
         <v>286.240221701987</v>
       </c>
       <c r="V31" t="n">
-        <v>142.0788500336008</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,16 +24914,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>289.8305236222869</v>
+        <v>335.246061442788</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24968,22 +24968,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.9961437262541</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0879769587719</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24993,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>52.40419665089908</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,16 +25005,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>130.3234115066589</v>
       </c>
       <c r="G33" t="n">
-        <v>135.6201573222675</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>30.06165587157603</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>149.381524823309</v>
       </c>
       <c r="I34" t="n">
-        <v>112.0011880774586</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>112.3296148478136</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>127.525017629571</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.2711672027487</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25154,22 +25154,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>306.4882544487972</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>86.30023924150485</v>
@@ -25205,13 +25205,13 @@
         <v>135.6226859698824</v>
       </c>
       <c r="T35" t="n">
-        <v>208.9961437262541</v>
+        <v>139.6685655526575</v>
       </c>
       <c r="U35" t="n">
         <v>251.0879769587719</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>74.6484745711204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25230,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>62.37128180262329</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>135.6201573222675</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>95.59141629896709</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>30.06165587157603</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,10 +25281,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>47.22057595499453</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>193.218379160494</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>35.42765779839408</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5461723592212</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>149.381524823309</v>
       </c>
       <c r="I37" t="n">
         <v>112.0011880774586</v>
@@ -25360,16 +25360,16 @@
         <v>112.3296148478136</v>
       </c>
       <c r="S37" t="n">
-        <v>198.8375524229862</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.7723231588118</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.240221701987</v>
+        <v>134.6500196665139</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25397,7 +25397,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25439,25 +25439,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>135.6226859698824</v>
       </c>
       <c r="T38" t="n">
-        <v>208.9961437262541</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0879769587719</v>
+        <v>6.530049894100983</v>
       </c>
       <c r="V38" t="n">
-        <v>56.10728444121793</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25467,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>67.09553368328667</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.6201573222675</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>30.06165587157603</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25521,13 +25521,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>193.218379160494</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25536,7 +25536,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>133.2602165545633</v>
       </c>
     </row>
     <row r="40">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5461723592212</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>149.381524823309</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>112.0011880774586</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25594,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.26997912528999</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>44.65391480940733</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.7723231588118</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.240221701987</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25628,25 +25628,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>53.68342768607437</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>412.0817881518278</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>306.4882544487972</v>
       </c>
       <c r="I41" t="n">
-        <v>2.326628805379414</v>
+        <v>86.30023924150485</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,16 +25685,16 @@
         <v>251.0879769587719</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25716,13 +25716,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.6201573222675</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>95.59141629896709</v>
       </c>
       <c r="I42" t="n">
         <v>30.06165587157603</v>
@@ -25755,13 +25755,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>139.6725179178992</v>
       </c>
       <c r="T42" t="n">
         <v>193.218379160494</v>
       </c>
       <c r="U42" t="n">
-        <v>134.214307638869</v>
+        <v>179.6397431376539</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>162.6758660486876</v>
+        <v>166.5461723592212</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>149.381524823309</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>112.0011880774586</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>21.26997912529021</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25865,25 +25865,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>412.0817881518278</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>306.4882544487972</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>86.30023924150485</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,16 +25922,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>243.3503938396051</v>
+        <v>156.798768126513</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25950,7 +25950,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25992,7 +25992,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>139.6725179178992</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26001,13 +26001,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>13.4924172349013</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>237.2379649758806</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>123.7730103151874</v>
+        <v>149.381524823309</v>
       </c>
       <c r="I46" t="n">
         <v>112.0011880774586</v>
@@ -26071,10 +26071,10 @@
         <v>112.3296148478136</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>198.8375524229862</v>
       </c>
       <c r="T46" t="n">
-        <v>221.7723231588118</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.240221701987</v>
@@ -26083,13 +26083,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>57.88205917167807</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>611821.6214998323</v>
+        <v>611821.621499832</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>611821.6214998321</v>
+        <v>611821.6214998323</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>611821.6214998324</v>
+        <v>611821.6214998321</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>611821.621499832</v>
+        <v>611821.6214998321</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>611821.621499832</v>
+        <v>611821.6214998321</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>611821.6214998323</v>
+        <v>611821.6214998321</v>
       </c>
     </row>
   </sheetData>
@@ -26314,37 +26314,37 @@
         <v>512111.6759418485</v>
       </c>
       <c r="C2" t="n">
-        <v>512111.6759418486</v>
+        <v>512111.6759418485</v>
       </c>
       <c r="D2" t="n">
-        <v>512797.7596510413</v>
+        <v>512797.7596510414</v>
       </c>
       <c r="E2" t="n">
         <v>328844.3278137245</v>
       </c>
       <c r="F2" t="n">
-        <v>328844.3278137244</v>
+        <v>328844.3278137243</v>
       </c>
       <c r="G2" t="n">
         <v>328844.3278137245</v>
       </c>
       <c r="H2" t="n">
+        <v>328844.3278137244</v>
+      </c>
+      <c r="I2" t="n">
+        <v>328844.3278137245</v>
+      </c>
+      <c r="J2" t="n">
+        <v>328844.3278137244</v>
+      </c>
+      <c r="K2" t="n">
         <v>328844.3278137243</v>
       </c>
-      <c r="I2" t="n">
-        <v>328844.3278137244</v>
-      </c>
-      <c r="J2" t="n">
-        <v>328844.3278137246</v>
-      </c>
-      <c r="K2" t="n">
-        <v>328844.3278137246</v>
-      </c>
       <c r="L2" t="n">
-        <v>328844.3278137244</v>
+        <v>328844.3278137245</v>
       </c>
       <c r="M2" t="n">
-        <v>328844.3278137244</v>
+        <v>328844.3278137245</v>
       </c>
       <c r="N2" t="n">
         <v>328844.3278137245</v>
@@ -26353,7 +26353,7 @@
         <v>328844.3278137245</v>
       </c>
       <c r="P2" t="n">
-        <v>328844.3278137244</v>
+        <v>328844.3278137245</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1740.265292815489</v>
+        <v>1740.26529281546</v>
       </c>
       <c r="M3" t="n">
         <v>118185.4305356539</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354386.1875928898</v>
+        <v>354206.016959769</v>
       </c>
       <c r="C4" t="n">
-        <v>354386.1875928897</v>
+        <v>354206.016959769</v>
       </c>
       <c r="D4" t="n">
-        <v>351713.8809553866</v>
+        <v>351539.2247737839</v>
       </c>
       <c r="E4" t="n">
-        <v>20455.41163779724</v>
+        <v>20299.55303839032</v>
       </c>
       <c r="F4" t="n">
-        <v>20455.41163779723</v>
+        <v>20299.55303839033</v>
       </c>
       <c r="G4" t="n">
-        <v>20455.41163779722</v>
+        <v>20299.55303839031</v>
       </c>
       <c r="H4" t="n">
-        <v>20455.41163779724</v>
+        <v>20299.55303839031</v>
       </c>
       <c r="I4" t="n">
-        <v>20455.41163779724</v>
+        <v>20299.55303839032</v>
       </c>
       <c r="J4" t="n">
-        <v>20455.41163779723</v>
+        <v>20299.55303839032</v>
       </c>
       <c r="K4" t="n">
-        <v>20455.41163779724</v>
+        <v>20299.55303839032</v>
       </c>
       <c r="L4" t="n">
-        <v>20455.41163779723</v>
+        <v>20299.55303839032</v>
       </c>
       <c r="M4" t="n">
-        <v>20455.41163779723</v>
+        <v>20299.55303839032</v>
       </c>
       <c r="N4" t="n">
-        <v>20455.41163779724</v>
+        <v>20299.55303839032</v>
       </c>
       <c r="O4" t="n">
-        <v>20455.41163779723</v>
+        <v>20299.55303839031</v>
       </c>
       <c r="P4" t="n">
-        <v>20455.41163779722</v>
+        <v>20299.55303839031</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>40599.70256325733</v>
       </c>
       <c r="D5" t="n">
-        <v>41226.73635463382</v>
+        <v>41226.73635463383</v>
       </c>
       <c r="E5" t="n">
-        <v>46718.97251362136</v>
+        <v>46718.97251362135</v>
       </c>
       <c r="F5" t="n">
         <v>46718.97251362135</v>
@@ -26485,22 +26485,22 @@
         <v>46718.97251362135</v>
       </c>
       <c r="H5" t="n">
-        <v>46718.97251362136</v>
+        <v>46718.97251362135</v>
       </c>
       <c r="I5" t="n">
         <v>46718.97251362136</v>
       </c>
       <c r="J5" t="n">
+        <v>46718.97251362136</v>
+      </c>
+      <c r="K5" t="n">
         <v>46718.97251362137</v>
       </c>
-      <c r="K5" t="n">
-        <v>46718.97251362136</v>
-      </c>
       <c r="L5" t="n">
-        <v>46718.97251362136</v>
+        <v>46718.97251362135</v>
       </c>
       <c r="M5" t="n">
-        <v>46718.97251362135</v>
+        <v>46718.97251362137</v>
       </c>
       <c r="N5" t="n">
         <v>46718.97251362137</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-191058.0980348529</v>
+        <v>-190877.927401732</v>
       </c>
       <c r="C6" t="n">
-        <v>117125.7857857016</v>
+        <v>117305.9564188223</v>
       </c>
       <c r="D6" t="n">
-        <v>109511.8319556163</v>
+        <v>109686.4881372191</v>
       </c>
       <c r="E6" t="n">
-        <v>-258980.0587075606</v>
+        <v>-258824.2001081535</v>
       </c>
       <c r="F6" t="n">
-        <v>261669.943662306</v>
+        <v>261825.8022617126</v>
       </c>
       <c r="G6" t="n">
-        <v>261669.9436623057</v>
+        <v>261825.8022617128</v>
       </c>
       <c r="H6" t="n">
-        <v>261669.9436623057</v>
+        <v>261825.8022617128</v>
       </c>
       <c r="I6" t="n">
-        <v>261669.9436623058</v>
+        <v>261825.8022617129</v>
       </c>
       <c r="J6" t="n">
-        <v>261669.9436623059</v>
+        <v>261825.8022617128</v>
       </c>
       <c r="K6" t="n">
-        <v>261669.943662306</v>
+        <v>261825.8022617127</v>
       </c>
       <c r="L6" t="n">
-        <v>259929.6783694903</v>
+        <v>260085.5369688974</v>
       </c>
       <c r="M6" t="n">
-        <v>143484.5131266519</v>
+        <v>143640.3717260589</v>
       </c>
       <c r="N6" t="n">
-        <v>261669.9436623058</v>
+        <v>261825.8022617128</v>
       </c>
       <c r="O6" t="n">
-        <v>261669.9436623059</v>
+        <v>261825.8022617129</v>
       </c>
       <c r="P6" t="n">
-        <v>261669.9436623058</v>
+        <v>261825.8022617128</v>
       </c>
     </row>
   </sheetData>
@@ -26747,7 +26747,7 @@
         <v>801.2111541226673</v>
       </c>
       <c r="F3" t="n">
-        <v>801.2111541226673</v>
+        <v>801.211154122667</v>
       </c>
       <c r="G3" t="n">
         <v>801.2111541226673</v>
@@ -26811,19 +26811,19 @@
         <v>481.1277854234739</v>
       </c>
       <c r="J4" t="n">
+        <v>481.1277854234739</v>
+      </c>
+      <c r="K4" t="n">
         <v>481.127785423474</v>
-      </c>
-      <c r="K4" t="n">
-        <v>481.1277854234739</v>
       </c>
       <c r="L4" t="n">
         <v>481.1277854234739</v>
       </c>
       <c r="M4" t="n">
-        <v>481.1277854234739</v>
+        <v>481.127785423474</v>
       </c>
       <c r="N4" t="n">
-        <v>481.1277854234741</v>
+        <v>481.127785423474</v>
       </c>
       <c r="O4" t="n">
         <v>481.1277854234739</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>474.2517396817624</v>
+        <v>474.2517396817623</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,7 +27039,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.876045741711437</v>
+        <v>6.876045741711323</v>
       </c>
       <c r="M4" t="n">
         <v>474.2517396817623</v>
@@ -27264,7 +27264,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>474.2517396817624</v>
+        <v>474.2517396817623</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S5" t="n">
         <v>179.7218745449422</v>
@@ -27795,7 +27795,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J7" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>375.8739489829624</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,7 +27868,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>325.9128341950639</v>
+        <v>319.8564131057644</v>
       </c>
       <c r="I8" t="n">
         <v>159.4227692713298</v>
@@ -27929,10 +27929,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>159.6571379081559</v>
       </c>
       <c r="C9" t="n">
-        <v>165.8324532466043</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27950,7 +27950,7 @@
         <v>105.3924797881105</v>
       </c>
       <c r="I9" t="n">
-        <v>58.12582284093458</v>
+        <v>65.00186858264601</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.16646052351003</v>
+        <v>49.29041478179859</v>
       </c>
       <c r="S9" t="n">
-        <v>158.5224288518331</v>
+        <v>152.4660077625337</v>
       </c>
       <c r="T9" t="n">
-        <v>197.3088320880702</v>
+        <v>190.4327863463587</v>
       </c>
       <c r="U9" t="n">
         <v>225.8947678817351</v>
       </c>
       <c r="V9" t="n">
-        <v>225.9245414077138</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>245.6385620716202</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>161.1904000093284</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28032,7 +28032,7 @@
         <v>137.5868948890097</v>
       </c>
       <c r="J10" t="n">
-        <v>44.48644091744647</v>
+        <v>51.36248665915791</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.42158504966668</v>
+        <v>29.54553930795525</v>
       </c>
       <c r="R10" t="n">
-        <v>150.5844231579502</v>
+        <v>144.5280020686508</v>
       </c>
       <c r="S10" t="n">
         <v>206.7885320614874</v>
       </c>
       <c r="T10" t="n">
-        <v>225.4075354325207</v>
+        <v>218.5314896908092</v>
       </c>
       <c r="U10" t="n">
         <v>286.2866286671833</v>
       </c>
       <c r="V10" t="n">
-        <v>245.2615975821166</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31285,7 +31285,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J5" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K5" t="n">
         <v>163.5475711458106</v>
@@ -31309,13 +31309,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R5" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S5" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T5" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U5" t="n">
         <v>0.1028570752958528</v>
@@ -31364,7 +31364,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J6" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K6" t="n">
         <v>111.0835641645513</v>
@@ -31394,7 +31394,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T6" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U6" t="n">
         <v>0.04525771959877963</v>
@@ -31437,13 +31437,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H7" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I7" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J7" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K7" t="n">
         <v>67.00516676073742</v>
@@ -31458,10 +31458,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O7" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P7" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q7" t="n">
         <v>48.29300399320443</v>
@@ -31607,7 +31607,7 @@
         <v>114.4129982271682</v>
       </c>
       <c r="L9" t="n">
-        <v>143.8277458061175</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
         <v>149.0100796637298</v>
@@ -31616,10 +31616,10 @@
         <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>149.4722901861559</v>
+        <v>149.1944701561877</v>
       </c>
       <c r="P9" t="n">
-        <v>135.2992670998302</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>90.44397697812161</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.220949363307203</v>
+        <v>3.220949363307202</v>
       </c>
       <c r="H14" t="n">
-        <v>32.9865476669699</v>
+        <v>32.98654766696989</v>
       </c>
       <c r="I14" t="n">
-        <v>124.1756503289011</v>
+        <v>124.175650328901</v>
       </c>
       <c r="J14" t="n">
         <v>273.3740510239949</v>
       </c>
       <c r="K14" t="n">
-        <v>409.7168375727889</v>
+        <v>409.7168375727888</v>
       </c>
       <c r="L14" t="n">
-        <v>508.2899666501018</v>
+        <v>508.2899666501017</v>
       </c>
       <c r="M14" t="n">
-        <v>565.5705248898163</v>
+        <v>565.5705248898161</v>
       </c>
       <c r="N14" t="n">
-        <v>574.7220472683128</v>
+        <v>574.7220472683127</v>
       </c>
       <c r="O14" t="n">
-        <v>542.6937320369269</v>
+        <v>542.6937320369267</v>
       </c>
       <c r="P14" t="n">
-        <v>463.1765446302802</v>
+        <v>463.1765446302801</v>
       </c>
       <c r="Q14" t="n">
-        <v>347.8262955568409</v>
+        <v>347.8262955568408</v>
       </c>
       <c r="R14" t="n">
-        <v>202.3279604428463</v>
+        <v>202.3279604428462</v>
       </c>
       <c r="S14" t="n">
-        <v>73.39738361636296</v>
+        <v>73.39738361636293</v>
       </c>
       <c r="T14" t="n">
-        <v>14.09970583787729</v>
+        <v>14.09970583787728</v>
       </c>
       <c r="U14" t="n">
         <v>0.2576759490645761</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.723359840943096</v>
+        <v>1.723359840943095</v>
       </c>
       <c r="H15" t="n">
         <v>16.64402793752937</v>
       </c>
       <c r="I15" t="n">
-        <v>59.33497697983905</v>
+        <v>59.33497697983903</v>
       </c>
       <c r="J15" t="n">
         <v>162.8197119901545</v>
       </c>
       <c r="K15" t="n">
-        <v>278.2848213333419</v>
+        <v>278.2848213333418</v>
       </c>
       <c r="L15" t="n">
-        <v>374.1882847626665</v>
+        <v>374.1882847626664</v>
       </c>
       <c r="M15" t="n">
-        <v>436.6600789968536</v>
+        <v>436.6600789968535</v>
       </c>
       <c r="N15" t="n">
-        <v>448.2171719652835</v>
+        <v>448.2171719652833</v>
       </c>
       <c r="O15" t="n">
-        <v>410.0311460159654</v>
+        <v>410.0311460159652</v>
       </c>
       <c r="P15" t="n">
-        <v>329.0861436621952</v>
+        <v>329.0861436621951</v>
       </c>
       <c r="Q15" t="n">
-        <v>219.9853719772275</v>
+        <v>219.9853719772274</v>
       </c>
       <c r="R15" t="n">
-        <v>106.9994820543442</v>
+        <v>106.9994820543441</v>
       </c>
       <c r="S15" t="n">
-        <v>32.01065318593862</v>
+        <v>32.01065318593861</v>
       </c>
       <c r="T15" t="n">
-        <v>6.94634953432765</v>
+        <v>6.946349534327648</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1133789369041511</v>
+        <v>0.113378936904151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32154,7 +32154,7 @@
         <v>43.44928684979973</v>
       </c>
       <c r="J16" t="n">
-        <v>102.1478548460981</v>
+        <v>102.147854846098</v>
       </c>
       <c r="K16" t="n">
         <v>167.8603040932407</v>
@@ -32166,28 +32166,28 @@
         <v>226.4800644350352</v>
       </c>
       <c r="N16" t="n">
-        <v>221.0948747106044</v>
+        <v>221.0948747106043</v>
       </c>
       <c r="O16" t="n">
-        <v>204.2169020376924</v>
+        <v>204.2169020376923</v>
       </c>
       <c r="P16" t="n">
-        <v>174.7428392532453</v>
+        <v>174.7428392532452</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.9828842725228</v>
+        <v>120.9828842725227</v>
       </c>
       <c r="R16" t="n">
-        <v>64.96377652935591</v>
+        <v>64.9637765293559</v>
       </c>
       <c r="S16" t="n">
         <v>25.1790456139861</v>
       </c>
       <c r="T16" t="n">
-        <v>6.173266269469729</v>
+        <v>6.173266269469727</v>
       </c>
       <c r="U16" t="n">
-        <v>0.07880765450386899</v>
+        <v>0.07880765450386897</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33913,7 +33913,7 @@
         <v>463.1765446302802</v>
       </c>
       <c r="Q38" t="n">
-        <v>347.8262955568409</v>
+        <v>347.8262955568413</v>
       </c>
       <c r="R38" t="n">
         <v>202.3279604428463</v>
@@ -34366,7 +34366,7 @@
         <v>124.1756503289011</v>
       </c>
       <c r="J44" t="n">
-        <v>273.3740510239949</v>
+        <v>273.3740510239942</v>
       </c>
       <c r="K44" t="n">
         <v>409.7168375727889</v>
@@ -34387,7 +34387,7 @@
         <v>463.1765446302802</v>
       </c>
       <c r="Q44" t="n">
-        <v>347.8262955568408</v>
+        <v>347.8262955568409</v>
       </c>
       <c r="R44" t="n">
         <v>202.3279604428463</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>6.598225711743296</v>
+        <v>2.180352849250227</v>
       </c>
       <c r="N8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>4.417872862493069</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Q8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>5.273366026243322</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
         <v>6.876045741711437</v>
@@ -35264,10 +35264,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P9" t="n">
-        <v>1.324859685499973</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L10" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>103.7357222887071</v>
+        <v>35.98208532348781</v>
       </c>
       <c r="K12" t="n">
         <v>404.9086193715615</v>
@@ -35507,7 +35507,7 @@
         <v>195.1117362478649</v>
       </c>
       <c r="Q12" t="n">
-        <v>80.00359789120594</v>
+        <v>147.7572348564253</v>
       </c>
       <c r="R12" t="n">
         <v>6.841647901701037</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>92.32814649730864</v>
+        <v>92.32814649730858</v>
       </c>
       <c r="K14" t="n">
-        <v>189.6269865278084</v>
+        <v>189.6269865278082</v>
       </c>
       <c r="L14" t="n">
-        <v>272.5235516801146</v>
+        <v>272.5235516801145</v>
       </c>
       <c r="M14" t="n">
-        <v>335.2242916625436</v>
+        <v>335.2242916625434</v>
       </c>
       <c r="N14" t="n">
-        <v>345.3089836717219</v>
+        <v>345.3089836717218</v>
       </c>
       <c r="O14" t="n">
-        <v>312.5955206152402</v>
+        <v>312.5955206152399</v>
       </c>
       <c r="P14" t="n">
-        <v>231.9435488750107</v>
+        <v>231.9435488750105</v>
       </c>
       <c r="Q14" t="n">
-        <v>125.5206056823914</v>
+        <v>125.5206056823913</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>35.98208532348781</v>
+        <v>35.98208532348778</v>
       </c>
       <c r="K15" t="n">
-        <v>404.9086193715615</v>
+        <v>140.4433823589828</v>
       </c>
       <c r="L15" t="n">
-        <v>235.6339049827923</v>
+        <v>235.6339049827922</v>
       </c>
       <c r="M15" t="n">
-        <v>294.5260450748353</v>
+        <v>294.5260450748352</v>
       </c>
       <c r="N15" t="n">
-        <v>316.8754598819502</v>
+        <v>316.8754598819501</v>
       </c>
       <c r="O15" t="n">
-        <v>267.4349015715209</v>
+        <v>267.4349015715208</v>
       </c>
       <c r="P15" t="n">
-        <v>195.1117362478649</v>
+        <v>317.253322489814</v>
       </c>
       <c r="Q15" t="n">
-        <v>147.7572348564251</v>
+        <v>290.080885627055</v>
       </c>
       <c r="R15" t="n">
-        <v>6.841647901701037</v>
+        <v>6.841647901701009</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>8.788674729425296</v>
+        <v>8.788674729425267</v>
       </c>
       <c r="K16" t="n">
-        <v>145.5908122673579</v>
+        <v>145.5908122673578</v>
       </c>
       <c r="L16" t="n">
-        <v>242.3934222196949</v>
+        <v>242.3934222196948</v>
       </c>
       <c r="M16" t="n">
-        <v>266.0639413968758</v>
+        <v>266.0639413968757</v>
       </c>
       <c r="N16" t="n">
         <v>265.2270470898329</v>
@@ -35823,7 +35823,7 @@
         <v>172.0213985181387</v>
       </c>
       <c r="Q16" t="n">
-        <v>34.82084102082837</v>
+        <v>34.82084102082834</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>35.98208532348781</v>
+        <v>162.0731206638966</v>
       </c>
       <c r="K18" t="n">
-        <v>262.5849686009313</v>
+        <v>140.4433823589829</v>
       </c>
       <c r="L18" t="n">
         <v>235.6339049827923</v>
@@ -35984,7 +35984,7 @@
         <v>290.0808856270551</v>
       </c>
       <c r="R18" t="n">
-        <v>6.841647901701037</v>
+        <v>2.892198803240745</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>35.98208532348781</v>
       </c>
       <c r="K21" t="n">
-        <v>140.4433823589829</v>
+        <v>404.9086193715615</v>
       </c>
       <c r="L21" t="n">
-        <v>235.6339049827923</v>
+        <v>303.3875419480112</v>
       </c>
       <c r="M21" t="n">
         <v>294.5260450748353</v>
@@ -36215,10 +36215,10 @@
         <v>267.4349015715209</v>
       </c>
       <c r="P21" t="n">
-        <v>317.2533224898138</v>
+        <v>195.1117362478649</v>
       </c>
       <c r="Q21" t="n">
-        <v>290.0808856270551</v>
+        <v>80.00359789120594</v>
       </c>
       <c r="R21" t="n">
         <v>6.841647901701037</v>
@@ -36452,13 +36452,13 @@
         <v>267.4349015715209</v>
       </c>
       <c r="P24" t="n">
-        <v>195.1117362478649</v>
+        <v>198.003935051106</v>
       </c>
       <c r="Q24" t="n">
-        <v>286.1314365285952</v>
+        <v>290.0808856270551</v>
       </c>
       <c r="R24" t="n">
-        <v>6.841647901701037</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>162.0731206638966</v>
+        <v>158.1236715654366</v>
       </c>
       <c r="K27" t="n">
-        <v>159.9694806477331</v>
+        <v>140.4433823589829</v>
       </c>
       <c r="L27" t="n">
         <v>235.6339049827923</v>
       </c>
       <c r="M27" t="n">
-        <v>481.127785423474</v>
+        <v>294.5260450748353</v>
       </c>
       <c r="N27" t="n">
         <v>316.8754598819502</v>
@@ -36692,7 +36692,7 @@
         <v>195.1117362478649</v>
       </c>
       <c r="Q27" t="n">
-        <v>80.00359789120594</v>
+        <v>290.0808856270551</v>
       </c>
       <c r="R27" t="n">
         <v>6.841647901701037</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>162.0731206638966</v>
+        <v>35.98208532348781</v>
       </c>
       <c r="K30" t="n">
-        <v>140.4433823589829</v>
+        <v>262.5849686009317</v>
       </c>
       <c r="L30" t="n">
         <v>235.6339049827923</v>
@@ -36929,7 +36929,7 @@
         <v>195.1117362478649</v>
       </c>
       <c r="Q30" t="n">
-        <v>286.1314365285952</v>
+        <v>290.0808856270551</v>
       </c>
       <c r="R30" t="n">
         <v>6.841647901701037</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>162.0731206638966</v>
+        <v>35.98208532348781</v>
       </c>
       <c r="K33" t="n">
-        <v>140.4433823589829</v>
+        <v>404.9086193715615</v>
       </c>
       <c r="L33" t="n">
         <v>235.6339049827923</v>
@@ -37163,13 +37163,13 @@
         <v>267.4349015715209</v>
       </c>
       <c r="P33" t="n">
-        <v>195.1117362478649</v>
+        <v>269.7070211147853</v>
       </c>
       <c r="Q33" t="n">
-        <v>290.0808856270551</v>
+        <v>80.00359789120594</v>
       </c>
       <c r="R33" t="n">
-        <v>2.892198803240974</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>162.0731206638966</v>
+        <v>154.5080754493327</v>
       </c>
       <c r="K36" t="n">
         <v>140.4433823589829</v>
@@ -37397,16 +37397,16 @@
         <v>316.8754598819502</v>
       </c>
       <c r="O36" t="n">
-        <v>267.4349015715209</v>
+        <v>481.127785423474</v>
       </c>
       <c r="P36" t="n">
         <v>195.1117362478649</v>
       </c>
       <c r="Q36" t="n">
-        <v>290.0808856270551</v>
+        <v>80.00359789120594</v>
       </c>
       <c r="R36" t="n">
-        <v>2.892198803240745</v>
+        <v>6.841647901701037</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>231.9435488750107</v>
       </c>
       <c r="Q38" t="n">
-        <v>125.5206056823914</v>
+        <v>125.5206056823918</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>290.0808856270551</v>
       </c>
       <c r="R39" t="n">
-        <v>2.892198803241434</v>
+        <v>2.892198803241204</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>162.0731206638966</v>
       </c>
       <c r="K42" t="n">
-        <v>140.4433823589829</v>
+        <v>182.318895454848</v>
       </c>
       <c r="L42" t="n">
         <v>235.6339049827923</v>
@@ -37868,7 +37868,7 @@
         <v>294.5260450748353</v>
       </c>
       <c r="N42" t="n">
-        <v>316.8754598819502</v>
+        <v>481.1277854234739</v>
       </c>
       <c r="O42" t="n">
         <v>267.4349015715209</v>
@@ -37877,7 +37877,7 @@
         <v>195.1117362478649</v>
       </c>
       <c r="Q42" t="n">
-        <v>286.131436528595</v>
+        <v>80.00359789120594</v>
       </c>
       <c r="R42" t="n">
         <v>6.841647901701037</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>92.32814649730864</v>
+        <v>92.32814649730796</v>
       </c>
       <c r="K44" t="n">
         <v>189.6269865278084</v>
@@ -38035,7 +38035,7 @@
         <v>231.9435488750107</v>
       </c>
       <c r="Q44" t="n">
-        <v>125.5206056823913</v>
+        <v>125.5206056823914</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>162.0731206638966</v>
+        <v>35.98208532348781</v>
       </c>
       <c r="K45" t="n">
-        <v>143.3355811622236</v>
+        <v>262.5849686009313</v>
       </c>
       <c r="L45" t="n">
         <v>235.6339049827923</v>
@@ -38117,7 +38117,7 @@
         <v>290.0808856270551</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>6.841647901701037</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
